--- a/Order.xlsx
+++ b/Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anders S. Johansen\Documents\MED10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{350CDF53-3DE3-4174-9AAA-9A60651BDE5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BD79EB-CF4F-4C7B-8354-900812DBAFA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2136" yWindow="0" windowWidth="19056" windowHeight="9276" activeTab="1" xr2:uid="{36F197DF-833F-4971-8683-502A5D50ECB2}"/>
+    <workbookView xWindow="-8256" yWindow="3084" windowWidth="19056" windowHeight="9276" activeTab="1" xr2:uid="{36F197DF-833F-4971-8683-502A5D50ECB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
   <si>
     <t>Participant 1</t>
   </si>
@@ -134,6 +134,33 @@
   </si>
   <si>
     <t xml:space="preserve">D A B C </t>
+  </si>
+  <si>
+    <t>participant 1</t>
+  </si>
+  <si>
+    <t>participant 2</t>
+  </si>
+  <si>
+    <t>participant 3</t>
+  </si>
+  <si>
+    <t>A B C</t>
+  </si>
+  <si>
+    <t>B C A</t>
+  </si>
+  <si>
+    <t>C A B</t>
+  </si>
+  <si>
+    <t>A = SLOW</t>
+  </si>
+  <si>
+    <t>B =MEDIUM</t>
+  </si>
+  <si>
+    <t>C = FAST</t>
   </si>
 </sst>
 </file>
@@ -157,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -165,12 +192,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,10 +743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565192FC-457A-45E0-B26D-E6CA912763DD}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C28" sqref="A26:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,7 +758,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
@@ -702,7 +769,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="s">
@@ -713,18 +780,18 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
@@ -735,7 +802,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -743,7 +810,7 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -751,15 +818,15 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -767,7 +834,7 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -775,7 +842,7 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -783,50 +850,122 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Order.xlsx
+++ b/Order.xlsx
@@ -2,21 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anders S. Johansen\Documents\MED10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BD79EB-CF4F-4C7B-8354-900812DBAFA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613FCFC2-A5D2-41C3-9078-9D6087DF2D37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8256" yWindow="3084" windowWidth="19056" windowHeight="9276" activeTab="1" xr2:uid="{36F197DF-833F-4971-8683-502A5D50ECB2}"/>
+    <workbookView minimized="1" xWindow="-3420" yWindow="-168" windowWidth="19056" windowHeight="9276" activeTab="3" xr2:uid="{36F197DF-833F-4971-8683-502A5D50ECB2}"/>
+    <workbookView xWindow="9288" yWindow="2688" windowWidth="13728" windowHeight="9276" xr2:uid="{844C89D6-4A11-4977-9BF4-0AC8AFA185A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Avoidance" sheetId="3" r:id="rId1"/>
+    <sheet name="Lists" sheetId="4" r:id="rId2"/>
+    <sheet name="Water Sess" sheetId="1" r:id="rId3"/>
+    <sheet name="Lego Sess" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Avoidance!$A$1:$J$161</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="65">
   <si>
     <t>Participant 1</t>
   </si>
@@ -162,6 +169,72 @@
   <si>
     <t>C = FAST</t>
   </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Ducked</t>
+  </si>
+  <si>
+    <t>Water Give Fast</t>
+  </si>
+  <si>
+    <t>Water Give Slow</t>
+  </si>
+  <si>
+    <t>Water Take Slow</t>
+  </si>
+  <si>
+    <t>Water Take Fast</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Lego Front Slow</t>
+  </si>
+  <si>
+    <t>Lego Front Fast</t>
+  </si>
+  <si>
+    <t>Lego Back Slow</t>
+  </si>
+  <si>
+    <t>Lego Back Fast</t>
+  </si>
+  <si>
+    <t>Turned Head</t>
+  </si>
+  <si>
+    <t>Turned Upper-Body</t>
+  </si>
+  <si>
+    <t>Turned Entire Body</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>TASKS</t>
+  </si>
+  <si>
+    <t>Robot Failed Task</t>
+  </si>
+  <si>
+    <t>Surprised face - piston</t>
+  </si>
+  <si>
+    <t>Surprised face - approach</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
 </sst>
 </file>
 
@@ -176,15 +249,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -229,15 +314,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,12 +721,9197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3831CB45-654A-4231-80DA-62404FB3A068}">
+  <dimension ref="A1:M765"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="B139" workbookViewId="1">
+      <selection activeCell="D162" sqref="D162"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>1</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>2</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>3</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>4</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>1</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="2">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>2</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>3</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>2</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>3</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>4</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>2</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>3</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="2">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>4</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>2</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="2">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
+        <v>4</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="2">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>2</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="2">
+        <v>11</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>3</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="2">
+        <v>11</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <v>4</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="2">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>2</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="2">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="10">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="10">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="18"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>3</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="2">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="10">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>4</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>1</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="2">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>2</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="2">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>3</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="2">
+        <v>13</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="10">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
+        <v>4</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="2">
+        <v>13</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="10">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
+        <v>0</v>
+      </c>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
+        <v>1</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="2">
+        <v>14</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="10">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="10">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
+        <v>2</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="2">
+        <v>14</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="10">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="10">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
+        <v>3</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="2">
+        <v>14</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
+        <v>4</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="2">
+        <v>14</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="10">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
+        <v>0</v>
+      </c>
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
+        <v>1</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="2">
+        <v>15</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="10">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="10">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
+        <v>2</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="2">
+        <v>15</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
+        <v>3</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="2">
+        <v>15</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
+        <v>4</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="2">
+        <v>15</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="10">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="10">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="12">
+        <v>1</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="2">
+        <v>16</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="10">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="10">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="12">
+        <v>2</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="2">
+        <v>16</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="10">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="10">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="12">
+        <v>3</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="2">
+        <v>16</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="10">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="10">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="12">
+        <v>4</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="2">
+        <v>16</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="10">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="10">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="12">
+        <v>1</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="2">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="10">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="10">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1</v>
+      </c>
+      <c r="J66" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="12">
+        <v>2</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="2">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="10">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="10">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6">
+        <v>0</v>
+      </c>
+      <c r="K67" s="18"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="12">
+        <v>3</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="2">
+        <v>17</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="10">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="10">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6">
+        <v>1</v>
+      </c>
+      <c r="K68" s="18"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="12">
+        <v>4</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="2">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="10">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="10">
+        <v>1</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="12">
+        <v>1</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="2">
+        <v>18</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="10">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="10">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="12">
+        <v>2</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="2">
+        <v>18</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="10">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71" s="10">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="12">
+        <v>3</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="2">
+        <v>18</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="10">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="10">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="12">
+        <v>4</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="2">
+        <v>18</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="10">
+        <v>0</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="10">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="12">
+        <v>1</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="2">
+        <v>19</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="10">
+        <v>0</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="10">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="12">
+        <v>2</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="2">
+        <v>19</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="10">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="10">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="12">
+        <v>3</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="2">
+        <v>19</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="10">
+        <v>0</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="10">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="6">
+        <v>0</v>
+      </c>
+      <c r="K76" s="18"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="12">
+        <v>4</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="2">
+        <v>19</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="10">
+        <v>0</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+      <c r="H77" s="10">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="12">
+        <v>1</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="2">
+        <v>20</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="10">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="10">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="12">
+        <v>2</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="2">
+        <v>20</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="10">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="10">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="12">
+        <v>3</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="2">
+        <v>20</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="10">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="10">
+        <v>0</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="12">
+        <v>4</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="2">
+        <v>20</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="10">
+        <v>0</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0</v>
+      </c>
+      <c r="H81" s="10">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="6">
+        <v>0</v>
+      </c>
+      <c r="K81" s="18"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="12">
+        <v>1</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="2">
+        <v>21</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="10">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="10">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="12">
+        <v>2</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="2">
+        <v>21</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="10">
+        <v>0</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+      <c r="H83" s="10">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="12">
+        <v>3</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="2">
+        <v>21</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="10">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+      <c r="H84" s="10">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="12">
+        <v>4</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="2">
+        <v>21</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="10">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+      <c r="H85" s="10">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="12">
+        <v>1</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="2">
+        <v>22</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="10">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1</v>
+      </c>
+      <c r="H86" s="10">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1</v>
+      </c>
+      <c r="J86" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="12">
+        <v>2</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="2">
+        <v>22</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="10">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="10">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2">
+        <v>1</v>
+      </c>
+      <c r="J87" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="12">
+        <v>3</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="2">
+        <v>22</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88" s="10">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1</v>
+      </c>
+      <c r="H88" s="10">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2">
+        <v>0</v>
+      </c>
+      <c r="J88" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="12">
+        <v>4</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="2">
+        <v>22</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="10">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="10">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2">
+        <v>0</v>
+      </c>
+      <c r="J89" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="12">
+        <v>1</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="2">
+        <v>23</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="10">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="10">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1</v>
+      </c>
+      <c r="J90" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="12">
+        <v>2</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="2">
+        <v>23</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91" s="10">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" s="10">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1</v>
+      </c>
+      <c r="J91" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="12">
+        <v>3</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" s="2">
+        <v>23</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="10">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="10">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2">
+        <v>1</v>
+      </c>
+      <c r="J92" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="12">
+        <v>4</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="2">
+        <v>23</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="10">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="10">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
+      <c r="J93" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="12">
+        <v>1</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" s="2">
+        <v>24</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="10">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="10">
+        <v>0</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
+      <c r="J94" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="12">
+        <v>2</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" s="2">
+        <v>24</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="10">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+      <c r="H95" s="10">
+        <v>0</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0</v>
+      </c>
+      <c r="J95" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="12">
+        <v>3</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="2">
+        <v>24</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96" s="10">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0</v>
+      </c>
+      <c r="H96" s="10">
+        <v>0</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="12">
+        <v>4</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" s="2">
+        <v>24</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="10">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="10">
+        <v>0</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="12">
+        <v>1</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C98" s="2">
+        <v>25</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+      <c r="F98" s="10">
+        <v>0</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" s="10">
+        <v>0</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0</v>
+      </c>
+      <c r="J98" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="12">
+        <v>2</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" s="2">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+      <c r="F99" s="10">
+        <v>0</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0</v>
+      </c>
+      <c r="H99" s="10">
+        <v>0</v>
+      </c>
+      <c r="I99" s="2">
+        <v>0</v>
+      </c>
+      <c r="J99" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="12">
+        <v>3</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="2">
+        <v>25</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+      <c r="F100" s="10">
+        <v>0</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0</v>
+      </c>
+      <c r="H100" s="10">
+        <v>1</v>
+      </c>
+      <c r="I100" s="2">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="12">
+        <v>4</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="2">
+        <v>25</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+      <c r="F101" s="10">
+        <v>0</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
+      <c r="H101" s="10">
+        <v>0</v>
+      </c>
+      <c r="I101" s="2">
+        <v>0</v>
+      </c>
+      <c r="J101" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="12">
+        <v>1</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C102" s="2">
+        <v>26</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1</v>
+      </c>
+      <c r="F102" s="10">
+        <v>0</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+      <c r="H102" s="10">
+        <v>0</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0</v>
+      </c>
+      <c r="J102" s="6">
+        <v>1</v>
+      </c>
+      <c r="K102" s="18"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="12">
+        <v>2</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" s="2">
+        <v>26</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
+      <c r="F103" s="10">
+        <v>0</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0</v>
+      </c>
+      <c r="H103" s="10">
+        <v>0</v>
+      </c>
+      <c r="I103" s="2">
+        <v>0</v>
+      </c>
+      <c r="J103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="12">
+        <v>3</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="2">
+        <v>26</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0</v>
+      </c>
+      <c r="F104" s="10">
+        <v>0</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0</v>
+      </c>
+      <c r="H104" s="10">
+        <v>0</v>
+      </c>
+      <c r="I104" s="2">
+        <v>0</v>
+      </c>
+      <c r="J104" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="12">
+        <v>4</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105" s="2">
+        <v>26</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
+      <c r="F105" s="10">
+        <v>0</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+      <c r="H105" s="10">
+        <v>0</v>
+      </c>
+      <c r="I105" s="2">
+        <v>0</v>
+      </c>
+      <c r="J105" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="12">
+        <v>1</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="2">
+        <v>27</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
+      <c r="F106" s="10">
+        <v>0</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0</v>
+      </c>
+      <c r="H106" s="10">
+        <v>0</v>
+      </c>
+      <c r="I106" s="2">
+        <v>0</v>
+      </c>
+      <c r="J106" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="12">
+        <v>2</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="2">
+        <v>27</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+      <c r="F107" s="10">
+        <v>0</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0</v>
+      </c>
+      <c r="H107" s="10">
+        <v>0</v>
+      </c>
+      <c r="I107" s="2">
+        <v>0</v>
+      </c>
+      <c r="J107" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="12">
+        <v>3</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" s="2">
+        <v>27</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0</v>
+      </c>
+      <c r="F108" s="10">
+        <v>0</v>
+      </c>
+      <c r="G108" s="2">
+        <v>0</v>
+      </c>
+      <c r="H108" s="10">
+        <v>0</v>
+      </c>
+      <c r="I108" s="2">
+        <v>0</v>
+      </c>
+      <c r="J108" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="12">
+        <v>4</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C109" s="2">
+        <v>27</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0</v>
+      </c>
+      <c r="F109" s="10">
+        <v>0</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0</v>
+      </c>
+      <c r="H109" s="10">
+        <v>0</v>
+      </c>
+      <c r="I109" s="2">
+        <v>0</v>
+      </c>
+      <c r="J109" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="12">
+        <v>1</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" s="2">
+        <v>28</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+      <c r="F110" s="10">
+        <v>0</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0</v>
+      </c>
+      <c r="H110" s="10">
+        <v>0</v>
+      </c>
+      <c r="I110" s="2">
+        <v>0</v>
+      </c>
+      <c r="J110" s="6">
+        <v>0</v>
+      </c>
+      <c r="K110" s="18"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="12">
+        <v>2</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111" s="2">
+        <v>28</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0</v>
+      </c>
+      <c r="F111" s="10">
+        <v>0</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0</v>
+      </c>
+      <c r="H111" s="10">
+        <v>0</v>
+      </c>
+      <c r="I111" s="2">
+        <v>0</v>
+      </c>
+      <c r="J111" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="12">
+        <v>3</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" s="2">
+        <v>28</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1</v>
+      </c>
+      <c r="E112" s="2">
+        <v>0</v>
+      </c>
+      <c r="F112" s="10">
+        <v>0</v>
+      </c>
+      <c r="G112" s="2">
+        <v>0</v>
+      </c>
+      <c r="H112" s="10">
+        <v>0</v>
+      </c>
+      <c r="I112" s="2">
+        <v>0</v>
+      </c>
+      <c r="J112" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="12">
+        <v>4</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C113" s="2">
+        <v>28</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="10">
+        <v>0</v>
+      </c>
+      <c r="G113" s="2">
+        <v>0</v>
+      </c>
+      <c r="H113" s="10">
+        <v>0</v>
+      </c>
+      <c r="I113" s="2">
+        <v>0</v>
+      </c>
+      <c r="J113" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="12">
+        <v>1</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C114" s="2">
+        <v>29</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+      <c r="F114" s="10">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0</v>
+      </c>
+      <c r="H114" s="10">
+        <v>0</v>
+      </c>
+      <c r="I114" s="2">
+        <v>0</v>
+      </c>
+      <c r="J114" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="12">
+        <v>2</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" s="2">
+        <v>29</v>
+      </c>
+      <c r="D115" s="2">
+        <v>1</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="10">
+        <v>0</v>
+      </c>
+      <c r="G115" s="2">
+        <v>0</v>
+      </c>
+      <c r="H115" s="10">
+        <v>0</v>
+      </c>
+      <c r="I115" s="2">
+        <v>0</v>
+      </c>
+      <c r="J115" s="6">
+        <v>0</v>
+      </c>
+      <c r="K115" s="18"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="12">
+        <v>3</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" s="2">
+        <v>29</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="10">
+        <v>0</v>
+      </c>
+      <c r="G116" s="2">
+        <v>0</v>
+      </c>
+      <c r="H116" s="10">
+        <v>0</v>
+      </c>
+      <c r="I116" s="2">
+        <v>0</v>
+      </c>
+      <c r="J116" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="12">
+        <v>4</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" s="2">
+        <v>29</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K117" s="2"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="12">
+        <v>1</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" s="2">
+        <v>30</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="10">
+        <v>0</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0</v>
+      </c>
+      <c r="H118" s="10">
+        <v>0</v>
+      </c>
+      <c r="I118" s="2">
+        <v>0</v>
+      </c>
+      <c r="J118" s="6">
+        <v>1</v>
+      </c>
+      <c r="K118" s="18"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="12">
+        <v>2</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C119" s="2">
+        <v>30</v>
+      </c>
+      <c r="D119" s="2">
+        <v>1</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="10">
+        <v>0</v>
+      </c>
+      <c r="G119" s="2">
+        <v>0</v>
+      </c>
+      <c r="H119" s="10">
+        <v>0</v>
+      </c>
+      <c r="I119" s="2">
+        <v>0</v>
+      </c>
+      <c r="J119" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="12">
+        <v>3</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120" s="2">
+        <v>30</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2">
+        <v>0</v>
+      </c>
+      <c r="F120" s="10">
+        <v>0</v>
+      </c>
+      <c r="G120" s="2">
+        <v>0</v>
+      </c>
+      <c r="H120" s="10">
+        <v>0</v>
+      </c>
+      <c r="I120" s="2">
+        <v>0</v>
+      </c>
+      <c r="J120" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="12">
+        <v>4</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C121" s="2">
+        <v>30</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0</v>
+      </c>
+      <c r="F121" s="10">
+        <v>0</v>
+      </c>
+      <c r="G121" s="2">
+        <v>0</v>
+      </c>
+      <c r="H121" s="10">
+        <v>0</v>
+      </c>
+      <c r="I121" s="2">
+        <v>0</v>
+      </c>
+      <c r="J121" s="6">
+        <v>0</v>
+      </c>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="12">
+        <v>1</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C122" s="2">
+        <v>31</v>
+      </c>
+      <c r="H122" s="10"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="6"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="12">
+        <v>2</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" s="2">
+        <v>31</v>
+      </c>
+      <c r="H123" s="10"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="6"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="12">
+        <v>3</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C124" s="2">
+        <v>31</v>
+      </c>
+      <c r="H124" s="10"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="6"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="12">
+        <v>4</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C125" s="2">
+        <v>31</v>
+      </c>
+      <c r="H125" s="10"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="6"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="12">
+        <v>1</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C126" s="2">
+        <v>32</v>
+      </c>
+      <c r="H126" s="10"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="6"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="12">
+        <v>2</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C127" s="2">
+        <v>32</v>
+      </c>
+      <c r="H127" s="10"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="6"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="12">
+        <v>3</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" s="2">
+        <v>32</v>
+      </c>
+      <c r="H128" s="10"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="6"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="12">
+        <v>4</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="2">
+        <v>32</v>
+      </c>
+      <c r="H129" s="10"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="6"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="12">
+        <v>1</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C130" s="2">
+        <v>33</v>
+      </c>
+      <c r="H130" s="10"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="6"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="12">
+        <v>2</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131" s="2">
+        <v>33</v>
+      </c>
+      <c r="H131" s="10"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="6"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="12">
+        <v>3</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" s="2">
+        <v>33</v>
+      </c>
+      <c r="H132" s="10"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="6"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="12">
+        <v>4</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C133" s="2">
+        <v>33</v>
+      </c>
+      <c r="H133" s="10"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="6"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="12">
+        <v>1</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" s="2">
+        <v>34</v>
+      </c>
+      <c r="H134" s="10"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="6"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="12">
+        <v>2</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C135" s="2">
+        <v>34</v>
+      </c>
+      <c r="H135" s="10"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="6"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="12">
+        <v>3</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C136" s="2">
+        <v>34</v>
+      </c>
+      <c r="H136" s="10"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="6"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="12">
+        <v>4</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C137" s="2">
+        <v>34</v>
+      </c>
+      <c r="H137" s="10"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="6"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="12">
+        <v>1</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C138" s="2">
+        <v>35</v>
+      </c>
+      <c r="H138" s="10"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="6"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="12">
+        <v>2</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C139" s="2">
+        <v>35</v>
+      </c>
+      <c r="H139" s="10"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="6"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="12">
+        <v>3</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C140" s="2">
+        <v>35</v>
+      </c>
+      <c r="H140" s="10"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="6"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="12">
+        <v>4</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C141" s="2">
+        <v>35</v>
+      </c>
+      <c r="H141" s="10"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="12">
+        <v>1</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C142" s="2">
+        <v>36</v>
+      </c>
+      <c r="H142" s="10"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="6"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="12">
+        <v>2</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143" s="2">
+        <v>36</v>
+      </c>
+      <c r="H143" s="10"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="6"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="12">
+        <v>3</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C144" s="2">
+        <v>36</v>
+      </c>
+      <c r="H144" s="10"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="6"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="12">
+        <v>4</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C145" s="2">
+        <v>36</v>
+      </c>
+      <c r="H145" s="10"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="6"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="12">
+        <v>1</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C146" s="2">
+        <v>37</v>
+      </c>
+      <c r="H146" s="10"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="6"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="12">
+        <v>2</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C147" s="2">
+        <v>37</v>
+      </c>
+      <c r="H147" s="10"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="6"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="12">
+        <v>3</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C148" s="2">
+        <v>37</v>
+      </c>
+      <c r="H148" s="10"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="6"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="12">
+        <v>4</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C149" s="2">
+        <v>37</v>
+      </c>
+      <c r="H149" s="10"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="6"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="12">
+        <v>1</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C150" s="2">
+        <v>38</v>
+      </c>
+      <c r="H150" s="10"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="6"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="12">
+        <v>2</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C151" s="2">
+        <v>38</v>
+      </c>
+      <c r="H151" s="10"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="6"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="12">
+        <v>3</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C152" s="2">
+        <v>38</v>
+      </c>
+      <c r="H152" s="10"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="6"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="12">
+        <v>4</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C153" s="2">
+        <v>38</v>
+      </c>
+      <c r="H153" s="10"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="6"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="12">
+        <v>1</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C154" s="2">
+        <v>39</v>
+      </c>
+      <c r="H154" s="10"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="6"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="12">
+        <v>2</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C155" s="2">
+        <v>39</v>
+      </c>
+      <c r="H155" s="10"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="6"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" s="12">
+        <v>3</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C156" s="2">
+        <v>39</v>
+      </c>
+      <c r="H156" s="10"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="6"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="12">
+        <v>4</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C157" s="2">
+        <v>39</v>
+      </c>
+      <c r="H157" s="10"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="6"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="12">
+        <v>1</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C158" s="2">
+        <v>40</v>
+      </c>
+      <c r="H158" s="10"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="6"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="12">
+        <v>2</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C159" s="2">
+        <v>40</v>
+      </c>
+      <c r="H159" s="10"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="6"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" s="12">
+        <v>3</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C160" s="2">
+        <v>40</v>
+      </c>
+      <c r="H160" s="10"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="6"/>
+    </row>
+    <row r="161" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="12">
+        <v>4</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" s="2">
+        <v>40</v>
+      </c>
+      <c r="H161" s="10"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="6"/>
+    </row>
+    <row r="162" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="16"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D162" s="1">
+        <f>SUBTOTAL(9,D3:D161)</f>
+        <v>39</v>
+      </c>
+      <c r="E162" s="4">
+        <f>SUBTOTAL(9,E3:E161)</f>
+        <v>12</v>
+      </c>
+      <c r="F162" s="9">
+        <f>SUBTOTAL(9,F3:F161)</f>
+        <v>0</v>
+      </c>
+      <c r="G162" s="4">
+        <f>SUBTOTAL(9,G3:G161)</f>
+        <v>2</v>
+      </c>
+      <c r="H162" s="9">
+        <f>SUBTOTAL(9,H3:H161)</f>
+        <v>3</v>
+      </c>
+      <c r="I162" s="4">
+        <f>SUBTOTAL(9,I3:I161)</f>
+        <v>13</v>
+      </c>
+      <c r="J162" s="8">
+        <f>SUBTOTAL(9,J3:J161)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="15"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="15"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="15"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="5"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="5"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="5"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+      <c r="J217" s="5"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="5"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
+      <c r="J222" s="5"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="5"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
+      <c r="J224" s="5"/>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="5"/>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="5"/>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A227" s="5"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5"/>
+      <c r="J227" s="5"/>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="5"/>
+      <c r="J228" s="5"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+      <c r="I229" s="5"/>
+      <c r="J229" s="5"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="5"/>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="5"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="5"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="5"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234" s="5"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
+      <c r="J234" s="5"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235" s="5"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A236" s="5"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="5"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A237" s="5"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="5"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A238" s="5"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="5"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A239" s="5"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="5"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A240" s="5"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="5"/>
+      <c r="J240" s="5"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A241" s="5"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A242" s="5"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
+      <c r="J242" s="5"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A243" s="5"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="5"/>
+      <c r="J243" s="5"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A244" s="5"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="5"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A245" s="5"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="5"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A246" s="5"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5"/>
+      <c r="J246" s="5"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A247" s="5"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
+      <c r="I247" s="5"/>
+      <c r="J247" s="5"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+      <c r="I248" s="5"/>
+      <c r="J248" s="5"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A249" s="5"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
+      <c r="I249" s="5"/>
+      <c r="J249" s="5"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A250" s="5"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="5"/>
+      <c r="J250" s="5"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A251" s="5"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A252" s="5"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="5"/>
+      <c r="H252" s="5"/>
+      <c r="I252" s="5"/>
+      <c r="J252" s="5"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A253" s="5"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="5"/>
+      <c r="H253" s="5"/>
+      <c r="I253" s="5"/>
+      <c r="J253" s="5"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A254" s="5"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="5"/>
+      <c r="H254" s="5"/>
+      <c r="I254" s="5"/>
+      <c r="J254" s="5"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A255" s="5"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="5"/>
+      <c r="I255" s="5"/>
+      <c r="J255" s="5"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
+      <c r="I256" s="5"/>
+      <c r="J256" s="5"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A257" s="5"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="5"/>
+      <c r="I257" s="5"/>
+      <c r="J257" s="5"/>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A258" s="5"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5"/>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A259" s="5"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="5"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A260" s="5"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="5"/>
+      <c r="J260" s="5"/>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="5"/>
+      <c r="I261" s="5"/>
+      <c r="J261" s="5"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="5"/>
+      <c r="I262" s="5"/>
+      <c r="J262" s="5"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A263" s="5"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5"/>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264" s="5"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
+      <c r="I264" s="5"/>
+      <c r="J264" s="5"/>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265" s="5"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="5"/>
+      <c r="I265" s="5"/>
+      <c r="J265" s="5"/>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A266" s="5"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
+      <c r="I266" s="5"/>
+      <c r="J266" s="5"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A267" s="5"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="5"/>
+      <c r="I267" s="5"/>
+      <c r="J267" s="5"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268" s="5"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
+      <c r="I268" s="5"/>
+      <c r="J268" s="5"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269" s="5"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="5"/>
+      <c r="I269" s="5"/>
+      <c r="J269" s="5"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A270" s="5"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
+      <c r="I270" s="5"/>
+      <c r="J270" s="5"/>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271" s="5"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
+      <c r="J271" s="5"/>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272" s="5"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="5"/>
+      <c r="I272" s="5"/>
+      <c r="J272" s="5"/>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A273" s="5"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
+      <c r="H273" s="5"/>
+      <c r="I273" s="5"/>
+      <c r="J273" s="5"/>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A274" s="5"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="5"/>
+      <c r="I274" s="5"/>
+      <c r="J274" s="5"/>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A275" s="5"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
+      <c r="G275" s="5"/>
+      <c r="H275" s="5"/>
+      <c r="I275" s="5"/>
+      <c r="J275" s="5"/>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A276" s="5"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
+      <c r="H276" s="5"/>
+      <c r="I276" s="5"/>
+      <c r="J276" s="5"/>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="5"/>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A278" s="5"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="5"/>
+      <c r="J278" s="5"/>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
+      <c r="I279" s="5"/>
+      <c r="J279" s="5"/>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A280" s="5"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="5"/>
+      <c r="H280" s="5"/>
+      <c r="I280" s="5"/>
+      <c r="J280" s="5"/>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="5"/>
+      <c r="H281" s="5"/>
+      <c r="I281" s="5"/>
+      <c r="J281" s="5"/>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A282" s="5"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="5"/>
+      <c r="I282" s="5"/>
+      <c r="J282" s="5"/>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A283" s="5"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
+      <c r="H283" s="5"/>
+      <c r="I283" s="5"/>
+      <c r="J283" s="5"/>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A284" s="5"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="5"/>
+      <c r="F284" s="5"/>
+      <c r="G284" s="5"/>
+      <c r="H284" s="5"/>
+      <c r="I284" s="5"/>
+      <c r="J284" s="5"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A285" s="5"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
+      <c r="G285" s="5"/>
+      <c r="H285" s="5"/>
+      <c r="I285" s="5"/>
+      <c r="J285" s="5"/>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A286" s="5"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+      <c r="G286" s="5"/>
+      <c r="H286" s="5"/>
+      <c r="I286" s="5"/>
+      <c r="J286" s="5"/>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A287" s="5"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5"/>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A288" s="5"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5"/>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="5"/>
+      <c r="I288" s="5"/>
+      <c r="J288" s="5"/>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A289" s="5"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="5"/>
+      <c r="I289" s="5"/>
+      <c r="J289" s="5"/>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A290" s="5"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="5"/>
+      <c r="I290" s="5"/>
+      <c r="J290" s="5"/>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5"/>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A292" s="5"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
+      <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5"/>
+      <c r="H292" s="5"/>
+      <c r="I292" s="5"/>
+      <c r="J292" s="5"/>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A293" s="5"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
+      <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="5"/>
+      <c r="I293" s="5"/>
+      <c r="J293" s="5"/>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A294" s="5"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
+      <c r="J294" s="5"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A295" s="5"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="5"/>
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+      <c r="G295" s="5"/>
+      <c r="H295" s="5"/>
+      <c r="I295" s="5"/>
+      <c r="J295" s="5"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A296" s="5"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="5"/>
+      <c r="I296" s="5"/>
+      <c r="J296" s="5"/>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A297" s="5"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5"/>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A298" s="5"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
+      <c r="H298" s="5"/>
+      <c r="I298" s="5"/>
+      <c r="J298" s="5"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A299" s="5"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5"/>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A300" s="5"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
+      <c r="H300" s="5"/>
+      <c r="I300" s="5"/>
+      <c r="J300" s="5"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A301" s="5"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="5"/>
+      <c r="I301" s="5"/>
+      <c r="J301" s="5"/>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A302" s="5"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="5"/>
+      <c r="I302" s="5"/>
+      <c r="J302" s="5"/>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A303" s="5"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="5"/>
+      <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
+      <c r="H303" s="5"/>
+      <c r="I303" s="5"/>
+      <c r="J303" s="5"/>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A304" s="5"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="5"/>
+      <c r="F304" s="5"/>
+      <c r="G304" s="5"/>
+      <c r="H304" s="5"/>
+      <c r="I304" s="5"/>
+      <c r="J304" s="5"/>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A305" s="5"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5"/>
+      <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
+      <c r="G305" s="5"/>
+      <c r="H305" s="5"/>
+      <c r="I305" s="5"/>
+      <c r="J305" s="5"/>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A306" s="5"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="5"/>
+      <c r="E306" s="5"/>
+      <c r="F306" s="5"/>
+      <c r="G306" s="5"/>
+      <c r="H306" s="5"/>
+      <c r="I306" s="5"/>
+      <c r="J306" s="5"/>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A307" s="5"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="5"/>
+      <c r="J307" s="5"/>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A308" s="5"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="5"/>
+      <c r="H308" s="5"/>
+      <c r="I308" s="5"/>
+      <c r="J308" s="5"/>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A309" s="5"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="5"/>
+      <c r="I309" s="5"/>
+      <c r="J309" s="5"/>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A310" s="5"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5"/>
+      <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
+      <c r="H310" s="5"/>
+      <c r="I310" s="5"/>
+      <c r="J310" s="5"/>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A311" s="5"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
+      <c r="H311" s="5"/>
+      <c r="I311" s="5"/>
+      <c r="J311" s="5"/>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A312" s="5"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
+      <c r="G312" s="5"/>
+      <c r="H312" s="5"/>
+      <c r="I312" s="5"/>
+      <c r="J312" s="5"/>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A313" s="5"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="5"/>
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="5"/>
+      <c r="I313" s="5"/>
+      <c r="J313" s="5"/>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A314" s="5"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="5"/>
+      <c r="H314" s="5"/>
+      <c r="I314" s="5"/>
+      <c r="J314" s="5"/>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A315" s="5"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="5"/>
+      <c r="F315" s="5"/>
+      <c r="G315" s="5"/>
+      <c r="H315" s="5"/>
+      <c r="I315" s="5"/>
+      <c r="J315" s="5"/>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A316" s="5"/>
+      <c r="C316" s="5"/>
+      <c r="D316" s="5"/>
+      <c r="E316" s="5"/>
+      <c r="F316" s="5"/>
+      <c r="G316" s="5"/>
+      <c r="H316" s="5"/>
+      <c r="I316" s="5"/>
+      <c r="J316" s="5"/>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A317" s="5"/>
+      <c r="C317" s="5"/>
+      <c r="D317" s="5"/>
+      <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
+      <c r="H317" s="5"/>
+      <c r="I317" s="5"/>
+      <c r="J317" s="5"/>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A318" s="5"/>
+      <c r="C318" s="5"/>
+      <c r="D318" s="5"/>
+      <c r="E318" s="5"/>
+      <c r="F318" s="5"/>
+      <c r="G318" s="5"/>
+      <c r="H318" s="5"/>
+      <c r="I318" s="5"/>
+      <c r="J318" s="5"/>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A319" s="5"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="5"/>
+      <c r="E319" s="5"/>
+      <c r="F319" s="5"/>
+      <c r="G319" s="5"/>
+      <c r="H319" s="5"/>
+      <c r="I319" s="5"/>
+      <c r="J319" s="5"/>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A320" s="5"/>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5"/>
+      <c r="E320" s="5"/>
+      <c r="F320" s="5"/>
+      <c r="G320" s="5"/>
+      <c r="H320" s="5"/>
+      <c r="I320" s="5"/>
+      <c r="J320" s="5"/>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A321" s="5"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="5"/>
+      <c r="H321" s="5"/>
+      <c r="I321" s="5"/>
+      <c r="J321" s="5"/>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A322" s="5"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="5"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="5"/>
+      <c r="H322" s="5"/>
+      <c r="I322" s="5"/>
+      <c r="J322" s="5"/>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A323" s="5"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5"/>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="5"/>
+      <c r="I323" s="5"/>
+      <c r="J323" s="5"/>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A324" s="5"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
+      <c r="G324" s="5"/>
+      <c r="H324" s="5"/>
+      <c r="I324" s="5"/>
+      <c r="J324" s="5"/>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A325" s="5"/>
+      <c r="C325" s="5"/>
+      <c r="D325" s="5"/>
+      <c r="E325" s="5"/>
+      <c r="F325" s="5"/>
+      <c r="G325" s="5"/>
+      <c r="H325" s="5"/>
+      <c r="I325" s="5"/>
+      <c r="J325" s="5"/>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A326" s="5"/>
+      <c r="C326" s="5"/>
+      <c r="D326" s="5"/>
+      <c r="E326" s="5"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5"/>
+      <c r="H326" s="5"/>
+      <c r="I326" s="5"/>
+      <c r="J326" s="5"/>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A327" s="5"/>
+      <c r="C327" s="5"/>
+      <c r="D327" s="5"/>
+      <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="5"/>
+      <c r="H327" s="5"/>
+      <c r="I327" s="5"/>
+      <c r="J327" s="5"/>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A328" s="5"/>
+      <c r="C328" s="5"/>
+      <c r="D328" s="5"/>
+      <c r="E328" s="5"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="5"/>
+      <c r="H328" s="5"/>
+      <c r="I328" s="5"/>
+      <c r="J328" s="5"/>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A329" s="5"/>
+      <c r="C329" s="5"/>
+      <c r="D329" s="5"/>
+      <c r="E329" s="5"/>
+      <c r="F329" s="5"/>
+      <c r="G329" s="5"/>
+      <c r="H329" s="5"/>
+      <c r="I329" s="5"/>
+      <c r="J329" s="5"/>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A330" s="5"/>
+      <c r="C330" s="5"/>
+      <c r="D330" s="5"/>
+      <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="5"/>
+      <c r="H330" s="5"/>
+      <c r="I330" s="5"/>
+      <c r="J330" s="5"/>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A331" s="5"/>
+      <c r="C331" s="5"/>
+      <c r="D331" s="5"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="5"/>
+      <c r="H331" s="5"/>
+      <c r="I331" s="5"/>
+      <c r="J331" s="5"/>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A332" s="5"/>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="5"/>
+      <c r="F332" s="5"/>
+      <c r="G332" s="5"/>
+      <c r="H332" s="5"/>
+      <c r="I332" s="5"/>
+      <c r="J332" s="5"/>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A333" s="5"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="5"/>
+      <c r="E333" s="5"/>
+      <c r="F333" s="5"/>
+      <c r="G333" s="5"/>
+      <c r="H333" s="5"/>
+      <c r="I333" s="5"/>
+      <c r="J333" s="5"/>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A334" s="5"/>
+      <c r="C334" s="5"/>
+      <c r="D334" s="5"/>
+      <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="5"/>
+      <c r="H334" s="5"/>
+      <c r="I334" s="5"/>
+      <c r="J334" s="5"/>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A335" s="5"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="5"/>
+      <c r="E335" s="5"/>
+      <c r="F335" s="5"/>
+      <c r="G335" s="5"/>
+      <c r="H335" s="5"/>
+      <c r="I335" s="5"/>
+      <c r="J335" s="5"/>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A336" s="5"/>
+      <c r="C336" s="5"/>
+      <c r="D336" s="5"/>
+      <c r="E336" s="5"/>
+      <c r="F336" s="5"/>
+      <c r="G336" s="5"/>
+      <c r="H336" s="5"/>
+      <c r="I336" s="5"/>
+      <c r="J336" s="5"/>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A337" s="5"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5"/>
+      <c r="E337" s="5"/>
+      <c r="F337" s="5"/>
+      <c r="G337" s="5"/>
+      <c r="H337" s="5"/>
+      <c r="I337" s="5"/>
+      <c r="J337" s="5"/>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A338" s="5"/>
+      <c r="C338" s="5"/>
+      <c r="D338" s="5"/>
+      <c r="E338" s="5"/>
+      <c r="F338" s="5"/>
+      <c r="G338" s="5"/>
+      <c r="H338" s="5"/>
+      <c r="I338" s="5"/>
+      <c r="J338" s="5"/>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A339" s="5"/>
+      <c r="C339" s="5"/>
+      <c r="D339" s="5"/>
+      <c r="E339" s="5"/>
+      <c r="F339" s="5"/>
+      <c r="G339" s="5"/>
+      <c r="H339" s="5"/>
+      <c r="I339" s="5"/>
+      <c r="J339" s="5"/>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A340" s="5"/>
+      <c r="C340" s="5"/>
+      <c r="D340" s="5"/>
+      <c r="E340" s="5"/>
+      <c r="F340" s="5"/>
+      <c r="G340" s="5"/>
+      <c r="H340" s="5"/>
+      <c r="I340" s="5"/>
+      <c r="J340" s="5"/>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A341" s="5"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="5"/>
+      <c r="F341" s="5"/>
+      <c r="G341" s="5"/>
+      <c r="H341" s="5"/>
+      <c r="I341" s="5"/>
+      <c r="J341" s="5"/>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A342" s="5"/>
+      <c r="C342" s="5"/>
+      <c r="D342" s="5"/>
+      <c r="E342" s="5"/>
+      <c r="F342" s="5"/>
+      <c r="G342" s="5"/>
+      <c r="H342" s="5"/>
+      <c r="I342" s="5"/>
+      <c r="J342" s="5"/>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A343" s="5"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="5"/>
+      <c r="E343" s="5"/>
+      <c r="F343" s="5"/>
+      <c r="G343" s="5"/>
+      <c r="H343" s="5"/>
+      <c r="I343" s="5"/>
+      <c r="J343" s="5"/>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A344" s="5"/>
+      <c r="C344" s="5"/>
+      <c r="D344" s="5"/>
+      <c r="E344" s="5"/>
+      <c r="F344" s="5"/>
+      <c r="G344" s="5"/>
+      <c r="H344" s="5"/>
+      <c r="I344" s="5"/>
+      <c r="J344" s="5"/>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A345" s="5"/>
+      <c r="C345" s="5"/>
+      <c r="D345" s="5"/>
+      <c r="E345" s="5"/>
+      <c r="F345" s="5"/>
+      <c r="G345" s="5"/>
+      <c r="H345" s="5"/>
+      <c r="I345" s="5"/>
+      <c r="J345" s="5"/>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A346" s="5"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="5"/>
+      <c r="E346" s="5"/>
+      <c r="F346" s="5"/>
+      <c r="G346" s="5"/>
+      <c r="H346" s="5"/>
+      <c r="I346" s="5"/>
+      <c r="J346" s="5"/>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A347" s="5"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="5"/>
+      <c r="E347" s="5"/>
+      <c r="F347" s="5"/>
+      <c r="G347" s="5"/>
+      <c r="H347" s="5"/>
+      <c r="I347" s="5"/>
+      <c r="J347" s="5"/>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A348" s="5"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="5"/>
+      <c r="F348" s="5"/>
+      <c r="G348" s="5"/>
+      <c r="H348" s="5"/>
+      <c r="I348" s="5"/>
+      <c r="J348" s="5"/>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A349" s="5"/>
+      <c r="C349" s="5"/>
+      <c r="D349" s="5"/>
+      <c r="E349" s="5"/>
+      <c r="F349" s="5"/>
+      <c r="G349" s="5"/>
+      <c r="H349" s="5"/>
+      <c r="I349" s="5"/>
+      <c r="J349" s="5"/>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C350" s="5"/>
+      <c r="D350" s="5"/>
+      <c r="E350" s="5"/>
+      <c r="F350" s="5"/>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C351" s="5"/>
+      <c r="D351" s="5"/>
+      <c r="E351" s="5"/>
+      <c r="F351" s="5"/>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C352" s="5"/>
+      <c r="D352" s="5"/>
+      <c r="E352" s="5"/>
+      <c r="F352" s="5"/>
+    </row>
+    <row r="353" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C353" s="5"/>
+      <c r="D353" s="5"/>
+      <c r="E353" s="5"/>
+      <c r="F353" s="5"/>
+    </row>
+    <row r="354" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C354" s="5"/>
+      <c r="D354" s="5"/>
+      <c r="E354" s="5"/>
+      <c r="F354" s="5"/>
+    </row>
+    <row r="355" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C355" s="5"/>
+      <c r="D355" s="5"/>
+      <c r="E355" s="5"/>
+      <c r="F355" s="5"/>
+    </row>
+    <row r="356" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C356" s="5"/>
+      <c r="D356" s="5"/>
+      <c r="E356" s="5"/>
+      <c r="F356" s="5"/>
+    </row>
+    <row r="357" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C357" s="5"/>
+      <c r="D357" s="5"/>
+      <c r="E357" s="5"/>
+      <c r="F357" s="5"/>
+    </row>
+    <row r="358" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C358" s="5"/>
+      <c r="D358" s="5"/>
+      <c r="E358" s="5"/>
+      <c r="F358" s="5"/>
+    </row>
+    <row r="359" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C359" s="5"/>
+      <c r="D359" s="5"/>
+      <c r="E359" s="5"/>
+      <c r="F359" s="5"/>
+    </row>
+    <row r="360" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C360" s="5"/>
+      <c r="D360" s="5"/>
+      <c r="E360" s="5"/>
+      <c r="F360" s="5"/>
+    </row>
+    <row r="361" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C361" s="5"/>
+      <c r="D361" s="5"/>
+      <c r="E361" s="5"/>
+      <c r="F361" s="5"/>
+    </row>
+    <row r="362" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C362" s="5"/>
+      <c r="D362" s="5"/>
+      <c r="E362" s="5"/>
+      <c r="F362" s="5"/>
+    </row>
+    <row r="363" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C363" s="5"/>
+      <c r="D363" s="5"/>
+      <c r="E363" s="5"/>
+      <c r="F363" s="5"/>
+    </row>
+    <row r="364" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C364" s="5"/>
+      <c r="D364" s="5"/>
+      <c r="E364" s="5"/>
+      <c r="F364" s="5"/>
+    </row>
+    <row r="365" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C365" s="5"/>
+      <c r="D365" s="5"/>
+      <c r="E365" s="5"/>
+      <c r="F365" s="5"/>
+    </row>
+    <row r="366" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C366" s="5"/>
+      <c r="D366" s="5"/>
+      <c r="E366" s="5"/>
+      <c r="F366" s="5"/>
+    </row>
+    <row r="367" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C367" s="5"/>
+      <c r="D367" s="5"/>
+      <c r="E367" s="5"/>
+      <c r="F367" s="5"/>
+    </row>
+    <row r="368" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C368" s="5"/>
+      <c r="D368" s="5"/>
+      <c r="E368" s="5"/>
+      <c r="F368" s="5"/>
+    </row>
+    <row r="369" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C369" s="5"/>
+      <c r="D369" s="5"/>
+      <c r="E369" s="5"/>
+      <c r="F369" s="5"/>
+    </row>
+    <row r="370" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C370" s="5"/>
+      <c r="D370" s="5"/>
+      <c r="E370" s="5"/>
+      <c r="F370" s="5"/>
+    </row>
+    <row r="371" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C371" s="5"/>
+      <c r="D371" s="5"/>
+      <c r="E371" s="5"/>
+      <c r="F371" s="5"/>
+    </row>
+    <row r="372" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C372" s="5"/>
+      <c r="D372" s="5"/>
+      <c r="E372" s="5"/>
+      <c r="F372" s="5"/>
+    </row>
+    <row r="373" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C373" s="5"/>
+      <c r="D373" s="5"/>
+      <c r="E373" s="5"/>
+      <c r="F373" s="5"/>
+    </row>
+    <row r="374" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C374" s="5"/>
+      <c r="D374" s="5"/>
+      <c r="E374" s="5"/>
+      <c r="F374" s="5"/>
+    </row>
+    <row r="375" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C375" s="5"/>
+      <c r="D375" s="5"/>
+      <c r="E375" s="5"/>
+      <c r="F375" s="5"/>
+    </row>
+    <row r="376" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C376" s="5"/>
+      <c r="D376" s="5"/>
+      <c r="E376" s="5"/>
+      <c r="F376" s="5"/>
+    </row>
+    <row r="377" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C377" s="5"/>
+      <c r="D377" s="5"/>
+      <c r="E377" s="5"/>
+      <c r="F377" s="5"/>
+    </row>
+    <row r="378" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C378" s="5"/>
+      <c r="D378" s="5"/>
+      <c r="E378" s="5"/>
+      <c r="F378" s="5"/>
+    </row>
+    <row r="379" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C379" s="5"/>
+      <c r="D379" s="5"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
+    </row>
+    <row r="380" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C380" s="5"/>
+      <c r="D380" s="5"/>
+      <c r="E380" s="5"/>
+      <c r="F380" s="5"/>
+    </row>
+    <row r="381" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C381" s="5"/>
+      <c r="D381" s="5"/>
+      <c r="E381" s="5"/>
+      <c r="F381" s="5"/>
+    </row>
+    <row r="382" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C382" s="5"/>
+      <c r="D382" s="5"/>
+      <c r="E382" s="5"/>
+      <c r="F382" s="5"/>
+    </row>
+    <row r="383" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C383" s="5"/>
+      <c r="D383" s="5"/>
+      <c r="E383" s="5"/>
+      <c r="F383" s="5"/>
+    </row>
+    <row r="384" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C384" s="5"/>
+      <c r="D384" s="5"/>
+      <c r="E384" s="5"/>
+      <c r="F384" s="5"/>
+    </row>
+    <row r="385" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C385" s="5"/>
+      <c r="D385" s="5"/>
+      <c r="E385" s="5"/>
+      <c r="F385" s="5"/>
+    </row>
+    <row r="386" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C386" s="5"/>
+      <c r="D386" s="5"/>
+      <c r="E386" s="5"/>
+      <c r="F386" s="5"/>
+    </row>
+    <row r="387" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C387" s="5"/>
+      <c r="D387" s="5"/>
+      <c r="E387" s="5"/>
+      <c r="F387" s="5"/>
+    </row>
+    <row r="388" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C388" s="5"/>
+      <c r="D388" s="5"/>
+      <c r="E388" s="5"/>
+      <c r="F388" s="5"/>
+    </row>
+    <row r="389" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C389" s="5"/>
+      <c r="D389" s="5"/>
+      <c r="E389" s="5"/>
+      <c r="F389" s="5"/>
+    </row>
+    <row r="390" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C390" s="5"/>
+      <c r="D390" s="5"/>
+      <c r="E390" s="5"/>
+      <c r="F390" s="5"/>
+    </row>
+    <row r="391" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C391" s="5"/>
+      <c r="D391" s="5"/>
+      <c r="E391" s="5"/>
+      <c r="F391" s="5"/>
+    </row>
+    <row r="392" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C392" s="5"/>
+      <c r="D392" s="5"/>
+      <c r="E392" s="5"/>
+      <c r="F392" s="5"/>
+    </row>
+    <row r="393" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C393" s="5"/>
+      <c r="D393" s="5"/>
+      <c r="E393" s="5"/>
+      <c r="F393" s="5"/>
+    </row>
+    <row r="394" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C394" s="5"/>
+      <c r="D394" s="5"/>
+      <c r="E394" s="5"/>
+      <c r="F394" s="5"/>
+    </row>
+    <row r="395" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C395" s="5"/>
+      <c r="D395" s="5"/>
+      <c r="E395" s="5"/>
+      <c r="F395" s="5"/>
+    </row>
+    <row r="396" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C396" s="5"/>
+      <c r="D396" s="5"/>
+      <c r="E396" s="5"/>
+      <c r="F396" s="5"/>
+    </row>
+    <row r="397" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C397" s="5"/>
+      <c r="D397" s="5"/>
+      <c r="E397" s="5"/>
+      <c r="F397" s="5"/>
+    </row>
+    <row r="398" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C398" s="5"/>
+      <c r="D398" s="5"/>
+      <c r="E398" s="5"/>
+      <c r="F398" s="5"/>
+    </row>
+    <row r="399" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C399" s="5"/>
+      <c r="D399" s="5"/>
+      <c r="E399" s="5"/>
+      <c r="F399" s="5"/>
+    </row>
+    <row r="400" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C400" s="5"/>
+      <c r="D400" s="5"/>
+      <c r="E400" s="5"/>
+      <c r="F400" s="5"/>
+    </row>
+    <row r="401" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C401" s="5"/>
+      <c r="D401" s="5"/>
+      <c r="E401" s="5"/>
+      <c r="F401" s="5"/>
+    </row>
+    <row r="402" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C402" s="5"/>
+      <c r="D402" s="5"/>
+      <c r="E402" s="5"/>
+      <c r="F402" s="5"/>
+    </row>
+    <row r="403" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C403" s="5"/>
+      <c r="D403" s="5"/>
+      <c r="E403" s="5"/>
+      <c r="F403" s="5"/>
+    </row>
+    <row r="404" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C404" s="5"/>
+      <c r="D404" s="5"/>
+      <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
+    </row>
+    <row r="405" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C405" s="5"/>
+      <c r="D405" s="5"/>
+      <c r="E405" s="5"/>
+      <c r="F405" s="5"/>
+    </row>
+    <row r="406" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C406" s="5"/>
+      <c r="D406" s="5"/>
+      <c r="E406" s="5"/>
+      <c r="F406" s="5"/>
+    </row>
+    <row r="407" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C407" s="5"/>
+      <c r="D407" s="5"/>
+      <c r="E407" s="5"/>
+      <c r="F407" s="5"/>
+    </row>
+    <row r="408" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C408" s="5"/>
+      <c r="D408" s="5"/>
+      <c r="E408" s="5"/>
+      <c r="F408" s="5"/>
+    </row>
+    <row r="409" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C409" s="5"/>
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
+    </row>
+    <row r="410" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C410" s="5"/>
+      <c r="D410" s="5"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+    </row>
+    <row r="411" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C411" s="5"/>
+      <c r="D411" s="5"/>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+    </row>
+    <row r="412" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C412" s="5"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+    </row>
+    <row r="413" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C413" s="5"/>
+      <c r="D413" s="5"/>
+      <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
+    </row>
+    <row r="414" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C414" s="5"/>
+      <c r="D414" s="5"/>
+      <c r="E414" s="5"/>
+      <c r="F414" s="5"/>
+    </row>
+    <row r="415" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C415" s="5"/>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+    </row>
+    <row r="416" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C416" s="5"/>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+    </row>
+    <row r="417" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C417" s="5"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="5"/>
+      <c r="F417" s="5"/>
+    </row>
+    <row r="418" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C418" s="5"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+    </row>
+    <row r="419" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C419" s="5"/>
+      <c r="D419" s="5"/>
+      <c r="E419" s="5"/>
+      <c r="F419" s="5"/>
+    </row>
+    <row r="420" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C420" s="5"/>
+      <c r="D420" s="5"/>
+      <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
+    </row>
+    <row r="421" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C421" s="5"/>
+      <c r="D421" s="5"/>
+      <c r="E421" s="5"/>
+      <c r="F421" s="5"/>
+    </row>
+    <row r="422" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C422" s="5"/>
+      <c r="D422" s="5"/>
+      <c r="E422" s="5"/>
+      <c r="F422" s="5"/>
+    </row>
+    <row r="423" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C423" s="5"/>
+      <c r="D423" s="5"/>
+      <c r="E423" s="5"/>
+      <c r="F423" s="5"/>
+    </row>
+    <row r="424" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C424" s="5"/>
+      <c r="D424" s="5"/>
+      <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
+    </row>
+    <row r="425" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C425" s="5"/>
+      <c r="D425" s="5"/>
+      <c r="E425" s="5"/>
+      <c r="F425" s="5"/>
+    </row>
+    <row r="426" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C426" s="5"/>
+      <c r="D426" s="5"/>
+      <c r="E426" s="5"/>
+      <c r="F426" s="5"/>
+    </row>
+    <row r="427" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C427" s="5"/>
+      <c r="D427" s="5"/>
+      <c r="E427" s="5"/>
+      <c r="F427" s="5"/>
+    </row>
+    <row r="428" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C428" s="5"/>
+      <c r="D428" s="5"/>
+      <c r="E428" s="5"/>
+      <c r="F428" s="5"/>
+    </row>
+    <row r="429" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C429" s="5"/>
+      <c r="D429" s="5"/>
+      <c r="E429" s="5"/>
+      <c r="F429" s="5"/>
+    </row>
+    <row r="430" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C430" s="5"/>
+      <c r="D430" s="5"/>
+      <c r="E430" s="5"/>
+      <c r="F430" s="5"/>
+    </row>
+    <row r="431" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C431" s="5"/>
+      <c r="D431" s="5"/>
+      <c r="E431" s="5"/>
+      <c r="F431" s="5"/>
+    </row>
+    <row r="432" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C432" s="5"/>
+      <c r="D432" s="5"/>
+      <c r="E432" s="5"/>
+      <c r="F432" s="5"/>
+    </row>
+    <row r="433" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C433" s="5"/>
+      <c r="D433" s="5"/>
+      <c r="E433" s="5"/>
+      <c r="F433" s="5"/>
+    </row>
+    <row r="434" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C434" s="5"/>
+      <c r="D434" s="5"/>
+      <c r="E434" s="5"/>
+      <c r="F434" s="5"/>
+    </row>
+    <row r="435" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C435" s="5"/>
+      <c r="D435" s="5"/>
+      <c r="E435" s="5"/>
+      <c r="F435" s="5"/>
+    </row>
+    <row r="436" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C436" s="5"/>
+      <c r="D436" s="5"/>
+      <c r="E436" s="5"/>
+      <c r="F436" s="5"/>
+    </row>
+    <row r="437" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C437" s="5"/>
+      <c r="D437" s="5"/>
+      <c r="E437" s="5"/>
+      <c r="F437" s="5"/>
+    </row>
+    <row r="438" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C438" s="5"/>
+      <c r="D438" s="5"/>
+      <c r="E438" s="5"/>
+      <c r="F438" s="5"/>
+    </row>
+    <row r="439" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C439" s="5"/>
+      <c r="D439" s="5"/>
+      <c r="E439" s="5"/>
+      <c r="F439" s="5"/>
+    </row>
+    <row r="440" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C440" s="5"/>
+      <c r="D440" s="5"/>
+      <c r="E440" s="5"/>
+      <c r="F440" s="5"/>
+    </row>
+    <row r="441" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C441" s="5"/>
+      <c r="D441" s="5"/>
+      <c r="E441" s="5"/>
+      <c r="F441" s="5"/>
+    </row>
+    <row r="442" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C442" s="5"/>
+      <c r="D442" s="5"/>
+      <c r="E442" s="5"/>
+      <c r="F442" s="5"/>
+    </row>
+    <row r="443" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C443" s="5"/>
+      <c r="D443" s="5"/>
+      <c r="E443" s="5"/>
+      <c r="F443" s="5"/>
+    </row>
+    <row r="444" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C444" s="5"/>
+      <c r="D444" s="5"/>
+      <c r="E444" s="5"/>
+      <c r="F444" s="5"/>
+    </row>
+    <row r="445" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C445" s="5"/>
+      <c r="D445" s="5"/>
+      <c r="E445" s="5"/>
+      <c r="F445" s="5"/>
+    </row>
+    <row r="446" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C446" s="5"/>
+      <c r="D446" s="5"/>
+      <c r="E446" s="5"/>
+      <c r="F446" s="5"/>
+    </row>
+    <row r="447" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C447" s="5"/>
+      <c r="D447" s="5"/>
+      <c r="E447" s="5"/>
+      <c r="F447" s="5"/>
+    </row>
+    <row r="448" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C448" s="5"/>
+      <c r="D448" s="5"/>
+      <c r="E448" s="5"/>
+      <c r="F448" s="5"/>
+    </row>
+    <row r="449" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C449" s="5"/>
+      <c r="D449" s="5"/>
+      <c r="E449" s="5"/>
+      <c r="F449" s="5"/>
+    </row>
+    <row r="450" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C450" s="5"/>
+      <c r="D450" s="5"/>
+      <c r="E450" s="5"/>
+      <c r="F450" s="5"/>
+    </row>
+    <row r="451" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C451" s="5"/>
+      <c r="D451" s="5"/>
+      <c r="E451" s="5"/>
+      <c r="F451" s="5"/>
+    </row>
+    <row r="452" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C452" s="5"/>
+      <c r="D452" s="5"/>
+      <c r="E452" s="5"/>
+      <c r="F452" s="5"/>
+    </row>
+    <row r="453" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C453" s="5"/>
+      <c r="D453" s="5"/>
+      <c r="E453" s="5"/>
+      <c r="F453" s="5"/>
+    </row>
+    <row r="454" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C454" s="5"/>
+      <c r="D454" s="5"/>
+      <c r="E454" s="5"/>
+      <c r="F454" s="5"/>
+    </row>
+    <row r="455" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C455" s="5"/>
+      <c r="D455" s="5"/>
+      <c r="E455" s="5"/>
+      <c r="F455" s="5"/>
+    </row>
+    <row r="456" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C456" s="5"/>
+      <c r="D456" s="5"/>
+      <c r="E456" s="5"/>
+      <c r="F456" s="5"/>
+    </row>
+    <row r="457" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C457" s="5"/>
+      <c r="D457" s="5"/>
+      <c r="E457" s="5"/>
+      <c r="F457" s="5"/>
+    </row>
+    <row r="458" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C458" s="5"/>
+      <c r="D458" s="5"/>
+      <c r="E458" s="5"/>
+      <c r="F458" s="5"/>
+    </row>
+    <row r="459" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C459" s="5"/>
+      <c r="D459" s="5"/>
+      <c r="E459" s="5"/>
+      <c r="F459" s="5"/>
+    </row>
+    <row r="460" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C460" s="5"/>
+      <c r="D460" s="5"/>
+      <c r="E460" s="5"/>
+      <c r="F460" s="5"/>
+    </row>
+    <row r="461" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C461" s="5"/>
+      <c r="D461" s="5"/>
+      <c r="E461" s="5"/>
+      <c r="F461" s="5"/>
+    </row>
+    <row r="462" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C462" s="5"/>
+      <c r="D462" s="5"/>
+      <c r="E462" s="5"/>
+      <c r="F462" s="5"/>
+    </row>
+    <row r="463" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C463" s="5"/>
+      <c r="D463" s="5"/>
+      <c r="E463" s="5"/>
+      <c r="F463" s="5"/>
+    </row>
+    <row r="464" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C464" s="5"/>
+      <c r="D464" s="5"/>
+      <c r="E464" s="5"/>
+      <c r="F464" s="5"/>
+    </row>
+    <row r="465" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C465" s="5"/>
+      <c r="D465" s="5"/>
+      <c r="E465" s="5"/>
+      <c r="F465" s="5"/>
+    </row>
+    <row r="466" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C466" s="5"/>
+      <c r="D466" s="5"/>
+      <c r="E466" s="5"/>
+      <c r="F466" s="5"/>
+    </row>
+    <row r="467" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C467" s="5"/>
+      <c r="D467" s="5"/>
+      <c r="E467" s="5"/>
+      <c r="F467" s="5"/>
+    </row>
+    <row r="468" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C468" s="5"/>
+      <c r="D468" s="5"/>
+      <c r="E468" s="5"/>
+      <c r="F468" s="5"/>
+    </row>
+    <row r="469" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C469" s="5"/>
+      <c r="D469" s="5"/>
+      <c r="E469" s="5"/>
+      <c r="F469" s="5"/>
+    </row>
+    <row r="470" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C470" s="5"/>
+      <c r="D470" s="5"/>
+      <c r="E470" s="5"/>
+      <c r="F470" s="5"/>
+    </row>
+    <row r="471" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C471" s="5"/>
+      <c r="D471" s="5"/>
+      <c r="E471" s="5"/>
+      <c r="F471" s="5"/>
+    </row>
+    <row r="472" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C472" s="5"/>
+      <c r="D472" s="5"/>
+      <c r="E472" s="5"/>
+      <c r="F472" s="5"/>
+    </row>
+    <row r="473" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C473" s="5"/>
+      <c r="D473" s="5"/>
+      <c r="E473" s="5"/>
+      <c r="F473" s="5"/>
+    </row>
+    <row r="474" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C474" s="5"/>
+      <c r="D474" s="5"/>
+      <c r="E474" s="5"/>
+      <c r="F474" s="5"/>
+    </row>
+    <row r="475" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C475" s="5"/>
+      <c r="D475" s="5"/>
+      <c r="E475" s="5"/>
+      <c r="F475" s="5"/>
+    </row>
+    <row r="476" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C476" s="5"/>
+      <c r="D476" s="5"/>
+      <c r="E476" s="5"/>
+      <c r="F476" s="5"/>
+    </row>
+    <row r="477" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C477" s="5"/>
+      <c r="D477" s="5"/>
+      <c r="E477" s="5"/>
+      <c r="F477" s="5"/>
+    </row>
+    <row r="478" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C478" s="5"/>
+      <c r="D478" s="5"/>
+      <c r="E478" s="5"/>
+      <c r="F478" s="5"/>
+    </row>
+    <row r="479" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C479" s="5"/>
+      <c r="D479" s="5"/>
+      <c r="E479" s="5"/>
+      <c r="F479" s="5"/>
+    </row>
+    <row r="480" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C480" s="5"/>
+      <c r="D480" s="5"/>
+      <c r="E480" s="5"/>
+      <c r="F480" s="5"/>
+    </row>
+    <row r="481" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C481" s="5"/>
+      <c r="D481" s="5"/>
+      <c r="E481" s="5"/>
+      <c r="F481" s="5"/>
+    </row>
+    <row r="482" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C482" s="5"/>
+      <c r="D482" s="5"/>
+      <c r="E482" s="5"/>
+      <c r="F482" s="5"/>
+    </row>
+    <row r="483" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C483" s="5"/>
+      <c r="D483" s="5"/>
+      <c r="E483" s="5"/>
+      <c r="F483" s="5"/>
+    </row>
+    <row r="484" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C484" s="5"/>
+      <c r="D484" s="5"/>
+      <c r="E484" s="5"/>
+      <c r="F484" s="5"/>
+    </row>
+    <row r="485" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C485" s="5"/>
+      <c r="D485" s="5"/>
+      <c r="E485" s="5"/>
+      <c r="F485" s="5"/>
+    </row>
+    <row r="486" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C486" s="5"/>
+      <c r="D486" s="5"/>
+      <c r="E486" s="5"/>
+      <c r="F486" s="5"/>
+    </row>
+    <row r="487" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C487" s="5"/>
+      <c r="D487" s="5"/>
+      <c r="E487" s="5"/>
+      <c r="F487" s="5"/>
+    </row>
+    <row r="488" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C488" s="5"/>
+      <c r="D488" s="5"/>
+      <c r="E488" s="5"/>
+      <c r="F488" s="5"/>
+    </row>
+    <row r="489" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C489" s="5"/>
+      <c r="D489" s="5"/>
+      <c r="E489" s="5"/>
+      <c r="F489" s="5"/>
+    </row>
+    <row r="490" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C490" s="5"/>
+      <c r="D490" s="5"/>
+      <c r="E490" s="5"/>
+      <c r="F490" s="5"/>
+    </row>
+    <row r="491" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C491" s="5"/>
+      <c r="D491" s="5"/>
+      <c r="E491" s="5"/>
+      <c r="F491" s="5"/>
+    </row>
+    <row r="492" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C492" s="5"/>
+      <c r="D492" s="5"/>
+      <c r="E492" s="5"/>
+      <c r="F492" s="5"/>
+    </row>
+    <row r="493" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C493" s="5"/>
+      <c r="D493" s="5"/>
+      <c r="E493" s="5"/>
+      <c r="F493" s="5"/>
+    </row>
+    <row r="494" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C494" s="5"/>
+      <c r="D494" s="5"/>
+      <c r="E494" s="5"/>
+      <c r="F494" s="5"/>
+    </row>
+    <row r="495" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C495" s="5"/>
+      <c r="D495" s="5"/>
+      <c r="E495" s="5"/>
+      <c r="F495" s="5"/>
+    </row>
+    <row r="496" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C496" s="5"/>
+      <c r="D496" s="5"/>
+      <c r="E496" s="5"/>
+      <c r="F496" s="5"/>
+    </row>
+    <row r="497" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C497" s="5"/>
+      <c r="D497" s="5"/>
+      <c r="E497" s="5"/>
+      <c r="F497" s="5"/>
+    </row>
+    <row r="498" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C498" s="5"/>
+      <c r="D498" s="5"/>
+      <c r="E498" s="5"/>
+      <c r="F498" s="5"/>
+    </row>
+    <row r="499" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C499" s="5"/>
+      <c r="D499" s="5"/>
+      <c r="E499" s="5"/>
+      <c r="F499" s="5"/>
+    </row>
+    <row r="500" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C500" s="5"/>
+      <c r="D500" s="5"/>
+      <c r="E500" s="5"/>
+      <c r="F500" s="5"/>
+    </row>
+    <row r="501" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C501" s="5"/>
+      <c r="D501" s="5"/>
+      <c r="E501" s="5"/>
+      <c r="F501" s="5"/>
+    </row>
+    <row r="502" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C502" s="5"/>
+      <c r="D502" s="5"/>
+      <c r="E502" s="5"/>
+      <c r="F502" s="5"/>
+    </row>
+    <row r="503" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C503" s="5"/>
+      <c r="D503" s="5"/>
+      <c r="E503" s="5"/>
+      <c r="F503" s="5"/>
+    </row>
+    <row r="504" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C504" s="5"/>
+      <c r="D504" s="5"/>
+      <c r="E504" s="5"/>
+      <c r="F504" s="5"/>
+    </row>
+    <row r="505" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C505" s="5"/>
+      <c r="D505" s="5"/>
+      <c r="E505" s="5"/>
+      <c r="F505" s="5"/>
+    </row>
+    <row r="506" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C506" s="5"/>
+      <c r="D506" s="5"/>
+      <c r="E506" s="5"/>
+      <c r="F506" s="5"/>
+    </row>
+    <row r="507" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C507" s="5"/>
+      <c r="D507" s="5"/>
+      <c r="E507" s="5"/>
+      <c r="F507" s="5"/>
+    </row>
+    <row r="508" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C508" s="5"/>
+      <c r="D508" s="5"/>
+      <c r="E508" s="5"/>
+      <c r="F508" s="5"/>
+    </row>
+    <row r="509" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C509" s="5"/>
+      <c r="D509" s="5"/>
+      <c r="E509" s="5"/>
+      <c r="F509" s="5"/>
+    </row>
+    <row r="510" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C510" s="5"/>
+      <c r="D510" s="5"/>
+      <c r="E510" s="5"/>
+      <c r="F510" s="5"/>
+    </row>
+    <row r="511" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C511" s="5"/>
+      <c r="D511" s="5"/>
+      <c r="E511" s="5"/>
+      <c r="F511" s="5"/>
+    </row>
+    <row r="512" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C512" s="5"/>
+      <c r="D512" s="5"/>
+      <c r="E512" s="5"/>
+      <c r="F512" s="5"/>
+    </row>
+    <row r="513" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C513" s="5"/>
+      <c r="D513" s="5"/>
+      <c r="E513" s="5"/>
+      <c r="F513" s="5"/>
+    </row>
+    <row r="514" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C514" s="5"/>
+      <c r="D514" s="5"/>
+      <c r="E514" s="5"/>
+      <c r="F514" s="5"/>
+    </row>
+    <row r="515" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C515" s="5"/>
+      <c r="D515" s="5"/>
+      <c r="E515" s="5"/>
+      <c r="F515" s="5"/>
+    </row>
+    <row r="516" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C516" s="5"/>
+      <c r="D516" s="5"/>
+      <c r="E516" s="5"/>
+      <c r="F516" s="5"/>
+    </row>
+    <row r="517" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C517" s="5"/>
+      <c r="D517" s="5"/>
+      <c r="E517" s="5"/>
+      <c r="F517" s="5"/>
+    </row>
+    <row r="518" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C518" s="5"/>
+      <c r="D518" s="5"/>
+      <c r="E518" s="5"/>
+      <c r="F518" s="5"/>
+    </row>
+    <row r="519" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C519" s="5"/>
+      <c r="D519" s="5"/>
+      <c r="E519" s="5"/>
+      <c r="F519" s="5"/>
+    </row>
+    <row r="520" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C520" s="5"/>
+      <c r="D520" s="5"/>
+      <c r="E520" s="5"/>
+      <c r="F520" s="5"/>
+    </row>
+    <row r="521" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C521" s="5"/>
+      <c r="D521" s="5"/>
+      <c r="E521" s="5"/>
+      <c r="F521" s="5"/>
+    </row>
+    <row r="522" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C522" s="5"/>
+      <c r="D522" s="5"/>
+      <c r="E522" s="5"/>
+      <c r="F522" s="5"/>
+    </row>
+    <row r="523" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C523" s="5"/>
+      <c r="D523" s="5"/>
+      <c r="E523" s="5"/>
+      <c r="F523" s="5"/>
+    </row>
+    <row r="524" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C524" s="5"/>
+      <c r="D524" s="5"/>
+      <c r="E524" s="5"/>
+      <c r="F524" s="5"/>
+    </row>
+    <row r="525" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C525" s="5"/>
+      <c r="D525" s="5"/>
+      <c r="E525" s="5"/>
+      <c r="F525" s="5"/>
+    </row>
+    <row r="526" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C526" s="5"/>
+      <c r="D526" s="5"/>
+      <c r="E526" s="5"/>
+      <c r="F526" s="5"/>
+    </row>
+    <row r="527" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C527" s="5"/>
+      <c r="D527" s="5"/>
+      <c r="E527" s="5"/>
+      <c r="F527" s="5"/>
+    </row>
+    <row r="528" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C528" s="5"/>
+      <c r="D528" s="5"/>
+      <c r="E528" s="5"/>
+      <c r="F528" s="5"/>
+    </row>
+    <row r="529" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C529" s="5"/>
+      <c r="D529" s="5"/>
+      <c r="E529" s="5"/>
+      <c r="F529" s="5"/>
+    </row>
+    <row r="530" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C530" s="5"/>
+      <c r="D530" s="5"/>
+      <c r="E530" s="5"/>
+      <c r="F530" s="5"/>
+    </row>
+    <row r="531" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C531" s="5"/>
+      <c r="D531" s="5"/>
+      <c r="E531" s="5"/>
+      <c r="F531" s="5"/>
+    </row>
+    <row r="532" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C532" s="5"/>
+      <c r="D532" s="5"/>
+      <c r="E532" s="5"/>
+      <c r="F532" s="5"/>
+    </row>
+    <row r="533" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C533" s="5"/>
+      <c r="D533" s="5"/>
+      <c r="E533" s="5"/>
+      <c r="F533" s="5"/>
+    </row>
+    <row r="534" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C534" s="5"/>
+      <c r="D534" s="5"/>
+      <c r="E534" s="5"/>
+      <c r="F534" s="5"/>
+    </row>
+    <row r="535" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C535" s="5"/>
+      <c r="D535" s="5"/>
+      <c r="E535" s="5"/>
+      <c r="F535" s="5"/>
+    </row>
+    <row r="536" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C536" s="5"/>
+      <c r="D536" s="5"/>
+      <c r="E536" s="5"/>
+      <c r="F536" s="5"/>
+    </row>
+    <row r="537" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C537" s="5"/>
+      <c r="D537" s="5"/>
+      <c r="E537" s="5"/>
+      <c r="F537" s="5"/>
+    </row>
+    <row r="538" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C538" s="5"/>
+      <c r="D538" s="5"/>
+      <c r="E538" s="5"/>
+      <c r="F538" s="5"/>
+    </row>
+    <row r="539" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C539" s="5"/>
+      <c r="D539" s="5"/>
+      <c r="E539" s="5"/>
+      <c r="F539" s="5"/>
+    </row>
+    <row r="540" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C540" s="5"/>
+      <c r="D540" s="5"/>
+      <c r="E540" s="5"/>
+      <c r="F540" s="5"/>
+    </row>
+    <row r="541" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C541" s="5"/>
+      <c r="D541" s="5"/>
+      <c r="E541" s="5"/>
+      <c r="F541" s="5"/>
+    </row>
+    <row r="542" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C542" s="5"/>
+      <c r="D542" s="5"/>
+      <c r="E542" s="5"/>
+      <c r="F542" s="5"/>
+    </row>
+    <row r="543" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C543" s="5"/>
+      <c r="D543" s="5"/>
+      <c r="E543" s="5"/>
+      <c r="F543" s="5"/>
+    </row>
+    <row r="544" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C544" s="5"/>
+      <c r="D544" s="5"/>
+      <c r="E544" s="5"/>
+      <c r="F544" s="5"/>
+    </row>
+    <row r="545" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C545" s="5"/>
+      <c r="D545" s="5"/>
+      <c r="E545" s="5"/>
+      <c r="F545" s="5"/>
+    </row>
+    <row r="546" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C546" s="5"/>
+      <c r="D546" s="5"/>
+      <c r="E546" s="5"/>
+      <c r="F546" s="5"/>
+    </row>
+    <row r="547" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C547" s="5"/>
+      <c r="D547" s="5"/>
+      <c r="E547" s="5"/>
+      <c r="F547" s="5"/>
+    </row>
+    <row r="548" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C548" s="5"/>
+      <c r="D548" s="5"/>
+      <c r="E548" s="5"/>
+      <c r="F548" s="5"/>
+    </row>
+    <row r="549" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C549" s="5"/>
+      <c r="D549" s="5"/>
+      <c r="E549" s="5"/>
+      <c r="F549" s="5"/>
+    </row>
+    <row r="550" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C550" s="5"/>
+      <c r="D550" s="5"/>
+      <c r="E550" s="5"/>
+      <c r="F550" s="5"/>
+    </row>
+    <row r="551" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C551" s="5"/>
+      <c r="D551" s="5"/>
+      <c r="E551" s="5"/>
+      <c r="F551" s="5"/>
+    </row>
+    <row r="552" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C552" s="5"/>
+      <c r="D552" s="5"/>
+      <c r="E552" s="5"/>
+      <c r="F552" s="5"/>
+    </row>
+    <row r="553" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C553" s="5"/>
+      <c r="D553" s="5"/>
+      <c r="E553" s="5"/>
+      <c r="F553" s="5"/>
+    </row>
+    <row r="554" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C554" s="5"/>
+      <c r="D554" s="5"/>
+      <c r="E554" s="5"/>
+      <c r="F554" s="5"/>
+    </row>
+    <row r="555" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C555" s="5"/>
+      <c r="D555" s="5"/>
+      <c r="E555" s="5"/>
+      <c r="F555" s="5"/>
+    </row>
+    <row r="556" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C556" s="5"/>
+      <c r="D556" s="5"/>
+      <c r="E556" s="5"/>
+      <c r="F556" s="5"/>
+    </row>
+    <row r="557" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C557" s="5"/>
+      <c r="D557" s="5"/>
+      <c r="E557" s="5"/>
+      <c r="F557" s="5"/>
+    </row>
+    <row r="558" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C558" s="5"/>
+      <c r="D558" s="5"/>
+      <c r="E558" s="5"/>
+      <c r="F558" s="5"/>
+    </row>
+    <row r="559" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C559" s="5"/>
+      <c r="D559" s="5"/>
+      <c r="E559" s="5"/>
+      <c r="F559" s="5"/>
+    </row>
+    <row r="560" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C560" s="5"/>
+      <c r="D560" s="5"/>
+      <c r="E560" s="5"/>
+      <c r="F560" s="5"/>
+    </row>
+    <row r="561" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C561" s="5"/>
+      <c r="D561" s="5"/>
+      <c r="E561" s="5"/>
+      <c r="F561" s="5"/>
+    </row>
+    <row r="562" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C562" s="5"/>
+      <c r="D562" s="5"/>
+      <c r="E562" s="5"/>
+      <c r="F562" s="5"/>
+    </row>
+    <row r="563" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C563" s="5"/>
+      <c r="D563" s="5"/>
+      <c r="E563" s="5"/>
+      <c r="F563" s="5"/>
+    </row>
+    <row r="564" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C564" s="5"/>
+      <c r="D564" s="5"/>
+      <c r="E564" s="5"/>
+      <c r="F564" s="5"/>
+    </row>
+    <row r="565" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C565" s="5"/>
+      <c r="D565" s="5"/>
+      <c r="E565" s="5"/>
+      <c r="F565" s="5"/>
+    </row>
+    <row r="566" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C566" s="5"/>
+      <c r="D566" s="5"/>
+      <c r="E566" s="5"/>
+      <c r="F566" s="5"/>
+    </row>
+    <row r="567" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C567" s="5"/>
+      <c r="D567" s="5"/>
+      <c r="E567" s="5"/>
+      <c r="F567" s="5"/>
+    </row>
+    <row r="568" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C568" s="5"/>
+      <c r="D568" s="5"/>
+      <c r="E568" s="5"/>
+      <c r="F568" s="5"/>
+    </row>
+    <row r="569" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C569" s="5"/>
+      <c r="D569" s="5"/>
+      <c r="E569" s="5"/>
+      <c r="F569" s="5"/>
+    </row>
+    <row r="570" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C570" s="5"/>
+      <c r="D570" s="5"/>
+      <c r="E570" s="5"/>
+      <c r="F570" s="5"/>
+    </row>
+    <row r="571" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C571" s="5"/>
+      <c r="D571" s="5"/>
+      <c r="E571" s="5"/>
+      <c r="F571" s="5"/>
+    </row>
+    <row r="572" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C572" s="5"/>
+      <c r="D572" s="5"/>
+      <c r="E572" s="5"/>
+      <c r="F572" s="5"/>
+    </row>
+    <row r="573" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C573" s="5"/>
+      <c r="D573" s="5"/>
+      <c r="E573" s="5"/>
+      <c r="F573" s="5"/>
+    </row>
+    <row r="574" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C574" s="5"/>
+      <c r="D574" s="5"/>
+      <c r="E574" s="5"/>
+      <c r="F574" s="5"/>
+    </row>
+    <row r="575" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C575" s="5"/>
+      <c r="D575" s="5"/>
+      <c r="E575" s="5"/>
+      <c r="F575" s="5"/>
+    </row>
+    <row r="576" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C576" s="5"/>
+      <c r="D576" s="5"/>
+      <c r="E576" s="5"/>
+      <c r="F576" s="5"/>
+    </row>
+    <row r="577" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C577" s="5"/>
+      <c r="D577" s="5"/>
+      <c r="E577" s="5"/>
+      <c r="F577" s="5"/>
+    </row>
+    <row r="578" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C578" s="5"/>
+      <c r="D578" s="5"/>
+      <c r="E578" s="5"/>
+      <c r="F578" s="5"/>
+    </row>
+    <row r="579" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C579" s="5"/>
+      <c r="D579" s="5"/>
+      <c r="E579" s="5"/>
+      <c r="F579" s="5"/>
+    </row>
+    <row r="580" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C580" s="5"/>
+      <c r="D580" s="5"/>
+      <c r="E580" s="5"/>
+      <c r="F580" s="5"/>
+    </row>
+    <row r="581" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C581" s="5"/>
+      <c r="D581" s="5"/>
+      <c r="E581" s="5"/>
+      <c r="F581" s="5"/>
+    </row>
+    <row r="582" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C582" s="5"/>
+      <c r="D582" s="5"/>
+      <c r="E582" s="5"/>
+      <c r="F582" s="5"/>
+    </row>
+    <row r="583" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C583" s="5"/>
+      <c r="D583" s="5"/>
+      <c r="E583" s="5"/>
+      <c r="F583" s="5"/>
+    </row>
+    <row r="584" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C584" s="5"/>
+      <c r="D584" s="5"/>
+      <c r="E584" s="5"/>
+      <c r="F584" s="5"/>
+    </row>
+    <row r="585" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C585" s="5"/>
+      <c r="D585" s="5"/>
+      <c r="E585" s="5"/>
+      <c r="F585" s="5"/>
+    </row>
+    <row r="586" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C586" s="5"/>
+      <c r="D586" s="5"/>
+      <c r="E586" s="5"/>
+      <c r="F586" s="5"/>
+    </row>
+    <row r="587" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C587" s="5"/>
+      <c r="D587" s="5"/>
+      <c r="E587" s="5"/>
+      <c r="F587" s="5"/>
+    </row>
+    <row r="588" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C588" s="5"/>
+      <c r="D588" s="5"/>
+      <c r="E588" s="5"/>
+      <c r="F588" s="5"/>
+    </row>
+    <row r="589" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C589" s="5"/>
+      <c r="D589" s="5"/>
+      <c r="E589" s="5"/>
+      <c r="F589" s="5"/>
+    </row>
+    <row r="590" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C590" s="5"/>
+      <c r="D590" s="5"/>
+      <c r="E590" s="5"/>
+      <c r="F590" s="5"/>
+    </row>
+    <row r="591" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C591" s="5"/>
+      <c r="D591" s="5"/>
+      <c r="E591" s="5"/>
+      <c r="F591" s="5"/>
+    </row>
+    <row r="592" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C592" s="5"/>
+      <c r="D592" s="5"/>
+      <c r="E592" s="5"/>
+      <c r="F592" s="5"/>
+    </row>
+    <row r="593" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C593" s="5"/>
+      <c r="D593" s="5"/>
+      <c r="E593" s="5"/>
+      <c r="F593" s="5"/>
+    </row>
+    <row r="594" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C594" s="5"/>
+      <c r="D594" s="5"/>
+      <c r="E594" s="5"/>
+      <c r="F594" s="5"/>
+    </row>
+    <row r="595" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C595" s="5"/>
+      <c r="D595" s="5"/>
+      <c r="E595" s="5"/>
+      <c r="F595" s="5"/>
+    </row>
+    <row r="596" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C596" s="5"/>
+      <c r="D596" s="5"/>
+      <c r="E596" s="5"/>
+      <c r="F596" s="5"/>
+    </row>
+    <row r="597" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C597" s="5"/>
+      <c r="D597" s="5"/>
+      <c r="E597" s="5"/>
+      <c r="F597" s="5"/>
+    </row>
+    <row r="598" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C598" s="5"/>
+      <c r="D598" s="5"/>
+      <c r="E598" s="5"/>
+      <c r="F598" s="5"/>
+    </row>
+    <row r="599" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C599" s="5"/>
+      <c r="D599" s="5"/>
+      <c r="E599" s="5"/>
+      <c r="F599" s="5"/>
+    </row>
+    <row r="600" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C600" s="5"/>
+      <c r="D600" s="5"/>
+      <c r="E600" s="5"/>
+      <c r="F600" s="5"/>
+    </row>
+    <row r="601" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C601" s="5"/>
+      <c r="D601" s="5"/>
+      <c r="E601" s="5"/>
+      <c r="F601" s="5"/>
+    </row>
+    <row r="602" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C602" s="5"/>
+      <c r="D602" s="5"/>
+      <c r="E602" s="5"/>
+      <c r="F602" s="5"/>
+    </row>
+    <row r="603" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C603" s="5"/>
+      <c r="D603" s="5"/>
+      <c r="E603" s="5"/>
+      <c r="F603" s="5"/>
+    </row>
+    <row r="604" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C604" s="5"/>
+      <c r="D604" s="5"/>
+      <c r="E604" s="5"/>
+      <c r="F604" s="5"/>
+    </row>
+    <row r="605" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C605" s="5"/>
+      <c r="D605" s="5"/>
+      <c r="E605" s="5"/>
+      <c r="F605" s="5"/>
+    </row>
+    <row r="606" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C606" s="5"/>
+      <c r="D606" s="5"/>
+      <c r="E606" s="5"/>
+      <c r="F606" s="5"/>
+    </row>
+    <row r="607" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C607" s="5"/>
+      <c r="D607" s="5"/>
+      <c r="E607" s="5"/>
+      <c r="F607" s="5"/>
+    </row>
+    <row r="608" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C608" s="5"/>
+      <c r="D608" s="5"/>
+      <c r="E608" s="5"/>
+      <c r="F608" s="5"/>
+    </row>
+    <row r="609" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C609" s="5"/>
+      <c r="D609" s="5"/>
+      <c r="E609" s="5"/>
+      <c r="F609" s="5"/>
+    </row>
+    <row r="610" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C610" s="5"/>
+      <c r="D610" s="5"/>
+      <c r="E610" s="5"/>
+      <c r="F610" s="5"/>
+    </row>
+    <row r="611" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C611" s="5"/>
+      <c r="D611" s="5"/>
+      <c r="E611" s="5"/>
+      <c r="F611" s="5"/>
+    </row>
+    <row r="612" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C612" s="5"/>
+      <c r="D612" s="5"/>
+      <c r="E612" s="5"/>
+      <c r="F612" s="5"/>
+    </row>
+    <row r="613" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C613" s="5"/>
+      <c r="D613" s="5"/>
+      <c r="E613" s="5"/>
+      <c r="F613" s="5"/>
+    </row>
+    <row r="614" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C614" s="5"/>
+      <c r="D614" s="5"/>
+      <c r="E614" s="5"/>
+      <c r="F614" s="5"/>
+    </row>
+    <row r="615" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C615" s="5"/>
+      <c r="D615" s="5"/>
+      <c r="E615" s="5"/>
+      <c r="F615" s="5"/>
+    </row>
+    <row r="616" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C616" s="5"/>
+      <c r="D616" s="5"/>
+      <c r="E616" s="5"/>
+      <c r="F616" s="5"/>
+    </row>
+    <row r="617" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C617" s="5"/>
+      <c r="D617" s="5"/>
+      <c r="E617" s="5"/>
+      <c r="F617" s="5"/>
+    </row>
+    <row r="618" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C618" s="5"/>
+      <c r="D618" s="5"/>
+      <c r="E618" s="5"/>
+      <c r="F618" s="5"/>
+    </row>
+    <row r="619" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C619" s="5"/>
+      <c r="D619" s="5"/>
+      <c r="E619" s="5"/>
+      <c r="F619" s="5"/>
+    </row>
+    <row r="620" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C620" s="5"/>
+      <c r="D620" s="5"/>
+      <c r="E620" s="5"/>
+      <c r="F620" s="5"/>
+    </row>
+    <row r="621" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C621" s="5"/>
+      <c r="D621" s="5"/>
+      <c r="E621" s="5"/>
+      <c r="F621" s="5"/>
+    </row>
+    <row r="622" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C622" s="5"/>
+      <c r="D622" s="5"/>
+      <c r="E622" s="5"/>
+      <c r="F622" s="5"/>
+    </row>
+    <row r="623" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C623" s="5"/>
+      <c r="D623" s="5"/>
+      <c r="E623" s="5"/>
+      <c r="F623" s="5"/>
+    </row>
+    <row r="624" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C624" s="5"/>
+      <c r="D624" s="5"/>
+      <c r="E624" s="5"/>
+      <c r="F624" s="5"/>
+    </row>
+    <row r="625" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C625" s="5"/>
+      <c r="D625" s="5"/>
+      <c r="E625" s="5"/>
+      <c r="F625" s="5"/>
+    </row>
+    <row r="626" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C626" s="5"/>
+      <c r="D626" s="5"/>
+      <c r="E626" s="5"/>
+      <c r="F626" s="5"/>
+    </row>
+    <row r="627" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C627" s="5"/>
+      <c r="D627" s="5"/>
+      <c r="E627" s="5"/>
+      <c r="F627" s="5"/>
+    </row>
+    <row r="628" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C628" s="5"/>
+      <c r="D628" s="5"/>
+      <c r="E628" s="5"/>
+      <c r="F628" s="5"/>
+    </row>
+    <row r="629" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C629" s="5"/>
+      <c r="D629" s="5"/>
+      <c r="E629" s="5"/>
+      <c r="F629" s="5"/>
+    </row>
+    <row r="630" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C630" s="5"/>
+      <c r="D630" s="5"/>
+      <c r="E630" s="5"/>
+      <c r="F630" s="5"/>
+    </row>
+    <row r="631" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C631" s="5"/>
+      <c r="D631" s="5"/>
+      <c r="E631" s="5"/>
+      <c r="F631" s="5"/>
+    </row>
+    <row r="632" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C632" s="5"/>
+      <c r="D632" s="5"/>
+      <c r="E632" s="5"/>
+      <c r="F632" s="5"/>
+    </row>
+    <row r="633" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C633" s="5"/>
+      <c r="D633" s="5"/>
+      <c r="E633" s="5"/>
+      <c r="F633" s="5"/>
+    </row>
+    <row r="634" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C634" s="5"/>
+      <c r="D634" s="5"/>
+      <c r="E634" s="5"/>
+      <c r="F634" s="5"/>
+    </row>
+    <row r="635" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C635" s="5"/>
+      <c r="D635" s="5"/>
+      <c r="E635" s="5"/>
+      <c r="F635" s="5"/>
+    </row>
+    <row r="636" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C636" s="5"/>
+      <c r="D636" s="5"/>
+      <c r="E636" s="5"/>
+      <c r="F636" s="5"/>
+    </row>
+    <row r="637" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C637" s="5"/>
+      <c r="D637" s="5"/>
+      <c r="E637" s="5"/>
+      <c r="F637" s="5"/>
+    </row>
+    <row r="638" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C638" s="5"/>
+      <c r="D638" s="5"/>
+      <c r="E638" s="5"/>
+      <c r="F638" s="5"/>
+    </row>
+    <row r="639" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C639" s="5"/>
+      <c r="D639" s="5"/>
+      <c r="E639" s="5"/>
+      <c r="F639" s="5"/>
+    </row>
+    <row r="640" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C640" s="5"/>
+      <c r="D640" s="5"/>
+      <c r="E640" s="5"/>
+      <c r="F640" s="5"/>
+    </row>
+    <row r="641" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C641" s="5"/>
+      <c r="D641" s="5"/>
+      <c r="E641" s="5"/>
+      <c r="F641" s="5"/>
+    </row>
+    <row r="642" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C642" s="5"/>
+      <c r="D642" s="5"/>
+      <c r="E642" s="5"/>
+      <c r="F642" s="5"/>
+    </row>
+    <row r="643" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C643" s="5"/>
+      <c r="D643" s="5"/>
+      <c r="E643" s="5"/>
+      <c r="F643" s="5"/>
+    </row>
+    <row r="644" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C644" s="5"/>
+      <c r="D644" s="5"/>
+      <c r="E644" s="5"/>
+      <c r="F644" s="5"/>
+    </row>
+    <row r="645" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C645" s="5"/>
+      <c r="D645" s="5"/>
+      <c r="E645" s="5"/>
+      <c r="F645" s="5"/>
+    </row>
+    <row r="646" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C646" s="5"/>
+      <c r="D646" s="5"/>
+      <c r="E646" s="5"/>
+      <c r="F646" s="5"/>
+    </row>
+    <row r="647" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C647" s="5"/>
+      <c r="D647" s="5"/>
+      <c r="E647" s="5"/>
+      <c r="F647" s="5"/>
+    </row>
+    <row r="648" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C648" s="5"/>
+      <c r="D648" s="5"/>
+      <c r="E648" s="5"/>
+      <c r="F648" s="5"/>
+    </row>
+    <row r="649" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C649" s="5"/>
+      <c r="D649" s="5"/>
+      <c r="E649" s="5"/>
+      <c r="F649" s="5"/>
+    </row>
+    <row r="650" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C650" s="5"/>
+      <c r="D650" s="5"/>
+      <c r="E650" s="5"/>
+      <c r="F650" s="5"/>
+    </row>
+    <row r="651" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C651" s="5"/>
+      <c r="D651" s="5"/>
+      <c r="E651" s="5"/>
+      <c r="F651" s="5"/>
+    </row>
+    <row r="652" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C652" s="5"/>
+      <c r="D652" s="5"/>
+      <c r="E652" s="5"/>
+      <c r="F652" s="5"/>
+    </row>
+    <row r="653" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C653" s="5"/>
+      <c r="D653" s="5"/>
+      <c r="E653" s="5"/>
+      <c r="F653" s="5"/>
+    </row>
+    <row r="654" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C654" s="5"/>
+      <c r="D654" s="5"/>
+      <c r="E654" s="5"/>
+      <c r="F654" s="5"/>
+    </row>
+    <row r="655" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C655" s="5"/>
+      <c r="D655" s="5"/>
+      <c r="E655" s="5"/>
+      <c r="F655" s="5"/>
+    </row>
+    <row r="656" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C656" s="5"/>
+      <c r="D656" s="5"/>
+      <c r="E656" s="5"/>
+      <c r="F656" s="5"/>
+    </row>
+    <row r="657" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C657" s="5"/>
+      <c r="D657" s="5"/>
+      <c r="E657" s="5"/>
+      <c r="F657" s="5"/>
+    </row>
+    <row r="658" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C658" s="5"/>
+      <c r="D658" s="5"/>
+      <c r="E658" s="5"/>
+      <c r="F658" s="5"/>
+    </row>
+    <row r="659" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C659" s="5"/>
+      <c r="D659" s="5"/>
+      <c r="E659" s="5"/>
+      <c r="F659" s="5"/>
+    </row>
+    <row r="660" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C660" s="5"/>
+      <c r="D660" s="5"/>
+      <c r="E660" s="5"/>
+      <c r="F660" s="5"/>
+    </row>
+    <row r="661" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C661" s="5"/>
+      <c r="D661" s="5"/>
+      <c r="E661" s="5"/>
+      <c r="F661" s="5"/>
+    </row>
+    <row r="662" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C662" s="5"/>
+      <c r="D662" s="5"/>
+      <c r="E662" s="5"/>
+      <c r="F662" s="5"/>
+    </row>
+    <row r="663" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C663" s="5"/>
+      <c r="D663" s="5"/>
+      <c r="E663" s="5"/>
+      <c r="F663" s="5"/>
+    </row>
+    <row r="664" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C664" s="5"/>
+      <c r="D664" s="5"/>
+      <c r="E664" s="5"/>
+      <c r="F664" s="5"/>
+    </row>
+    <row r="665" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C665" s="5"/>
+      <c r="D665" s="5"/>
+      <c r="E665" s="5"/>
+      <c r="F665" s="5"/>
+    </row>
+    <row r="666" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C666" s="5"/>
+      <c r="D666" s="5"/>
+      <c r="E666" s="5"/>
+      <c r="F666" s="5"/>
+    </row>
+    <row r="667" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C667" s="5"/>
+      <c r="D667" s="5"/>
+      <c r="E667" s="5"/>
+      <c r="F667" s="5"/>
+    </row>
+    <row r="668" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C668" s="5"/>
+      <c r="D668" s="5"/>
+      <c r="E668" s="5"/>
+      <c r="F668" s="5"/>
+    </row>
+    <row r="669" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C669" s="5"/>
+      <c r="D669" s="5"/>
+      <c r="E669" s="5"/>
+      <c r="F669" s="5"/>
+    </row>
+    <row r="670" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C670" s="5"/>
+      <c r="D670" s="5"/>
+      <c r="E670" s="5"/>
+      <c r="F670" s="5"/>
+    </row>
+    <row r="671" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C671" s="5"/>
+      <c r="D671" s="5"/>
+      <c r="E671" s="5"/>
+      <c r="F671" s="5"/>
+    </row>
+    <row r="672" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C672" s="5"/>
+      <c r="D672" s="5"/>
+      <c r="E672" s="5"/>
+      <c r="F672" s="5"/>
+    </row>
+    <row r="673" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C673" s="5"/>
+      <c r="D673" s="5"/>
+      <c r="E673" s="5"/>
+      <c r="F673" s="5"/>
+    </row>
+    <row r="674" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C674" s="5"/>
+      <c r="D674" s="5"/>
+      <c r="E674" s="5"/>
+      <c r="F674" s="5"/>
+    </row>
+    <row r="675" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C675" s="5"/>
+      <c r="D675" s="5"/>
+      <c r="E675" s="5"/>
+      <c r="F675" s="5"/>
+    </row>
+    <row r="676" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C676" s="5"/>
+      <c r="D676" s="5"/>
+      <c r="E676" s="5"/>
+      <c r="F676" s="5"/>
+    </row>
+    <row r="677" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C677" s="5"/>
+      <c r="D677" s="5"/>
+      <c r="E677" s="5"/>
+      <c r="F677" s="5"/>
+    </row>
+    <row r="678" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C678" s="5"/>
+      <c r="D678" s="5"/>
+      <c r="E678" s="5"/>
+      <c r="F678" s="5"/>
+    </row>
+    <row r="679" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C679" s="5"/>
+      <c r="D679" s="5"/>
+      <c r="E679" s="5"/>
+      <c r="F679" s="5"/>
+    </row>
+    <row r="680" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C680" s="5"/>
+      <c r="D680" s="5"/>
+      <c r="E680" s="5"/>
+      <c r="F680" s="5"/>
+    </row>
+    <row r="681" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C681" s="5"/>
+      <c r="D681" s="5"/>
+      <c r="E681" s="5"/>
+      <c r="F681" s="5"/>
+    </row>
+    <row r="682" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C682" s="5"/>
+      <c r="D682" s="5"/>
+      <c r="E682" s="5"/>
+      <c r="F682" s="5"/>
+    </row>
+    <row r="683" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C683" s="5"/>
+      <c r="D683" s="5"/>
+      <c r="E683" s="5"/>
+      <c r="F683" s="5"/>
+    </row>
+    <row r="684" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C684" s="5"/>
+      <c r="D684" s="5"/>
+      <c r="E684" s="5"/>
+      <c r="F684" s="5"/>
+    </row>
+    <row r="685" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C685" s="5"/>
+      <c r="D685" s="5"/>
+      <c r="E685" s="5"/>
+      <c r="F685" s="5"/>
+    </row>
+    <row r="686" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C686" s="5"/>
+      <c r="D686" s="5"/>
+      <c r="E686" s="5"/>
+      <c r="F686" s="5"/>
+    </row>
+    <row r="687" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C687" s="5"/>
+      <c r="D687" s="5"/>
+      <c r="E687" s="5"/>
+      <c r="F687" s="5"/>
+    </row>
+    <row r="688" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C688" s="5"/>
+      <c r="D688" s="5"/>
+      <c r="E688" s="5"/>
+      <c r="F688" s="5"/>
+    </row>
+    <row r="689" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C689" s="5"/>
+      <c r="D689" s="5"/>
+      <c r="E689" s="5"/>
+      <c r="F689" s="5"/>
+    </row>
+    <row r="690" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C690" s="5"/>
+      <c r="D690" s="5"/>
+      <c r="E690" s="5"/>
+      <c r="F690" s="5"/>
+    </row>
+    <row r="691" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C691" s="5"/>
+      <c r="D691" s="5"/>
+      <c r="E691" s="5"/>
+      <c r="F691" s="5"/>
+    </row>
+    <row r="692" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C692" s="5"/>
+      <c r="D692" s="5"/>
+      <c r="E692" s="5"/>
+      <c r="F692" s="5"/>
+    </row>
+    <row r="693" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C693" s="5"/>
+      <c r="D693" s="5"/>
+      <c r="E693" s="5"/>
+      <c r="F693" s="5"/>
+    </row>
+    <row r="694" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C694" s="5"/>
+      <c r="D694" s="5"/>
+      <c r="E694" s="5"/>
+      <c r="F694" s="5"/>
+    </row>
+    <row r="695" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C695" s="5"/>
+      <c r="D695" s="5"/>
+      <c r="E695" s="5"/>
+      <c r="F695" s="5"/>
+    </row>
+    <row r="696" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C696" s="5"/>
+      <c r="D696" s="5"/>
+      <c r="E696" s="5"/>
+      <c r="F696" s="5"/>
+    </row>
+    <row r="697" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C697" s="5"/>
+      <c r="D697" s="5"/>
+      <c r="E697" s="5"/>
+      <c r="F697" s="5"/>
+    </row>
+    <row r="698" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C698" s="5"/>
+      <c r="D698" s="5"/>
+      <c r="E698" s="5"/>
+      <c r="F698" s="5"/>
+    </row>
+    <row r="699" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C699" s="5"/>
+      <c r="D699" s="5"/>
+      <c r="E699" s="5"/>
+      <c r="F699" s="5"/>
+    </row>
+    <row r="700" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C700" s="5"/>
+      <c r="D700" s="5"/>
+      <c r="E700" s="5"/>
+      <c r="F700" s="5"/>
+    </row>
+    <row r="701" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C701" s="5"/>
+      <c r="D701" s="5"/>
+      <c r="E701" s="5"/>
+      <c r="F701" s="5"/>
+    </row>
+    <row r="702" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C702" s="5"/>
+      <c r="D702" s="5"/>
+      <c r="E702" s="5"/>
+      <c r="F702" s="5"/>
+    </row>
+    <row r="703" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C703" s="5"/>
+      <c r="D703" s="5"/>
+      <c r="E703" s="5"/>
+      <c r="F703" s="5"/>
+    </row>
+    <row r="704" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C704" s="5"/>
+      <c r="D704" s="5"/>
+      <c r="E704" s="5"/>
+      <c r="F704" s="5"/>
+    </row>
+    <row r="705" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C705" s="5"/>
+      <c r="D705" s="5"/>
+      <c r="E705" s="5"/>
+      <c r="F705" s="5"/>
+    </row>
+    <row r="706" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C706" s="5"/>
+      <c r="D706" s="5"/>
+      <c r="E706" s="5"/>
+      <c r="F706" s="5"/>
+    </row>
+    <row r="707" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C707" s="5"/>
+      <c r="D707" s="5"/>
+      <c r="E707" s="5"/>
+      <c r="F707" s="5"/>
+    </row>
+    <row r="708" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C708" s="5"/>
+      <c r="D708" s="5"/>
+      <c r="E708" s="5"/>
+      <c r="F708" s="5"/>
+    </row>
+    <row r="709" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C709" s="5"/>
+      <c r="D709" s="5"/>
+      <c r="E709" s="5"/>
+      <c r="F709" s="5"/>
+    </row>
+    <row r="710" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C710" s="5"/>
+      <c r="D710" s="5"/>
+      <c r="E710" s="5"/>
+      <c r="F710" s="5"/>
+    </row>
+    <row r="711" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C711" s="5"/>
+      <c r="D711" s="5"/>
+      <c r="E711" s="5"/>
+      <c r="F711" s="5"/>
+    </row>
+    <row r="712" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C712" s="5"/>
+      <c r="D712" s="5"/>
+      <c r="E712" s="5"/>
+      <c r="F712" s="5"/>
+    </row>
+    <row r="713" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C713" s="5"/>
+      <c r="D713" s="5"/>
+      <c r="E713" s="5"/>
+      <c r="F713" s="5"/>
+    </row>
+    <row r="714" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C714" s="5"/>
+      <c r="D714" s="5"/>
+      <c r="E714" s="5"/>
+      <c r="F714" s="5"/>
+    </row>
+    <row r="715" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C715" s="5"/>
+      <c r="D715" s="5"/>
+      <c r="E715" s="5"/>
+      <c r="F715" s="5"/>
+    </row>
+    <row r="716" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C716" s="5"/>
+      <c r="D716" s="5"/>
+      <c r="E716" s="5"/>
+      <c r="F716" s="5"/>
+    </row>
+    <row r="717" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C717" s="5"/>
+      <c r="D717" s="5"/>
+      <c r="E717" s="5"/>
+      <c r="F717" s="5"/>
+    </row>
+    <row r="718" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C718" s="5"/>
+      <c r="D718" s="5"/>
+      <c r="E718" s="5"/>
+      <c r="F718" s="5"/>
+    </row>
+    <row r="719" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C719" s="5"/>
+      <c r="D719" s="5"/>
+      <c r="E719" s="5"/>
+      <c r="F719" s="5"/>
+    </row>
+    <row r="720" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C720" s="5"/>
+      <c r="D720" s="5"/>
+      <c r="E720" s="5"/>
+      <c r="F720" s="5"/>
+    </row>
+    <row r="721" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C721" s="5"/>
+      <c r="D721" s="5"/>
+      <c r="E721" s="5"/>
+      <c r="F721" s="5"/>
+    </row>
+    <row r="722" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C722" s="5"/>
+      <c r="D722" s="5"/>
+      <c r="E722" s="5"/>
+      <c r="F722" s="5"/>
+    </row>
+    <row r="723" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C723" s="5"/>
+      <c r="D723" s="5"/>
+      <c r="E723" s="5"/>
+      <c r="F723" s="5"/>
+    </row>
+    <row r="724" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C724" s="5"/>
+      <c r="D724" s="5"/>
+      <c r="E724" s="5"/>
+      <c r="F724" s="5"/>
+    </row>
+    <row r="725" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C725" s="5"/>
+      <c r="D725" s="5"/>
+      <c r="E725" s="5"/>
+      <c r="F725" s="5"/>
+    </row>
+    <row r="726" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C726" s="5"/>
+      <c r="D726" s="5"/>
+      <c r="E726" s="5"/>
+      <c r="F726" s="5"/>
+    </row>
+    <row r="727" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C727" s="5"/>
+      <c r="D727" s="5"/>
+      <c r="E727" s="5"/>
+      <c r="F727" s="5"/>
+    </row>
+    <row r="728" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C728" s="5"/>
+      <c r="D728" s="5"/>
+      <c r="E728" s="5"/>
+      <c r="F728" s="5"/>
+    </row>
+    <row r="729" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C729" s="5"/>
+      <c r="D729" s="5"/>
+      <c r="E729" s="5"/>
+      <c r="F729" s="5"/>
+    </row>
+    <row r="730" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C730" s="5"/>
+      <c r="D730" s="5"/>
+      <c r="E730" s="5"/>
+      <c r="F730" s="5"/>
+    </row>
+    <row r="731" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C731" s="5"/>
+      <c r="D731" s="5"/>
+      <c r="E731" s="5"/>
+      <c r="F731" s="5"/>
+    </row>
+    <row r="732" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C732" s="5"/>
+      <c r="D732" s="5"/>
+      <c r="E732" s="5"/>
+      <c r="F732" s="5"/>
+    </row>
+    <row r="733" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C733" s="5"/>
+      <c r="D733" s="5"/>
+      <c r="E733" s="5"/>
+      <c r="F733" s="5"/>
+    </row>
+    <row r="734" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C734" s="5"/>
+      <c r="D734" s="5"/>
+      <c r="E734" s="5"/>
+      <c r="F734" s="5"/>
+    </row>
+    <row r="735" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C735" s="5"/>
+      <c r="D735" s="5"/>
+      <c r="E735" s="5"/>
+      <c r="F735" s="5"/>
+    </row>
+    <row r="736" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C736" s="5"/>
+      <c r="D736" s="5"/>
+      <c r="E736" s="5"/>
+      <c r="F736" s="5"/>
+    </row>
+    <row r="737" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C737" s="5"/>
+      <c r="D737" s="5"/>
+      <c r="E737" s="5"/>
+      <c r="F737" s="5"/>
+    </row>
+    <row r="738" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C738" s="5"/>
+      <c r="D738" s="5"/>
+      <c r="E738" s="5"/>
+      <c r="F738" s="5"/>
+    </row>
+    <row r="739" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C739" s="5"/>
+      <c r="D739" s="5"/>
+      <c r="E739" s="5"/>
+      <c r="F739" s="5"/>
+    </row>
+    <row r="740" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C740" s="5"/>
+      <c r="D740" s="5"/>
+      <c r="E740" s="5"/>
+      <c r="F740" s="5"/>
+    </row>
+    <row r="741" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C741" s="5"/>
+      <c r="D741" s="5"/>
+      <c r="E741" s="5"/>
+      <c r="F741" s="5"/>
+    </row>
+    <row r="742" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C742" s="5"/>
+      <c r="D742" s="5"/>
+      <c r="E742" s="5"/>
+      <c r="F742" s="5"/>
+    </row>
+    <row r="743" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C743" s="5"/>
+      <c r="D743" s="5"/>
+      <c r="E743" s="5"/>
+      <c r="F743" s="5"/>
+    </row>
+    <row r="744" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C744" s="5"/>
+      <c r="D744" s="5"/>
+      <c r="E744" s="5"/>
+      <c r="F744" s="5"/>
+    </row>
+    <row r="745" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C745" s="5"/>
+      <c r="D745" s="5"/>
+      <c r="E745" s="5"/>
+      <c r="F745" s="5"/>
+    </row>
+    <row r="746" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C746" s="5"/>
+      <c r="D746" s="5"/>
+      <c r="E746" s="5"/>
+      <c r="F746" s="5"/>
+    </row>
+    <row r="747" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C747" s="5"/>
+      <c r="D747" s="5"/>
+      <c r="E747" s="5"/>
+      <c r="F747" s="5"/>
+    </row>
+    <row r="748" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C748" s="5"/>
+      <c r="D748" s="5"/>
+      <c r="E748" s="5"/>
+      <c r="F748" s="5"/>
+    </row>
+    <row r="749" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C749" s="5"/>
+      <c r="D749" s="5"/>
+      <c r="E749" s="5"/>
+      <c r="F749" s="5"/>
+    </row>
+    <row r="750" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C750" s="5"/>
+      <c r="D750" s="5"/>
+      <c r="E750" s="5"/>
+      <c r="F750" s="5"/>
+    </row>
+    <row r="751" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C751" s="5"/>
+      <c r="D751" s="5"/>
+      <c r="E751" s="5"/>
+      <c r="F751" s="5"/>
+    </row>
+    <row r="752" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C752" s="5"/>
+      <c r="D752" s="5"/>
+      <c r="E752" s="5"/>
+      <c r="F752" s="5"/>
+    </row>
+    <row r="753" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C753" s="5"/>
+      <c r="D753" s="5"/>
+      <c r="E753" s="5"/>
+      <c r="F753" s="5"/>
+    </row>
+    <row r="754" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C754" s="5"/>
+      <c r="D754" s="5"/>
+      <c r="E754" s="5"/>
+      <c r="F754" s="5"/>
+    </row>
+    <row r="755" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C755" s="5"/>
+      <c r="D755" s="5"/>
+      <c r="E755" s="5"/>
+      <c r="F755" s="5"/>
+    </row>
+    <row r="756" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C756" s="5"/>
+      <c r="D756" s="5"/>
+      <c r="E756" s="5"/>
+      <c r="F756" s="5"/>
+    </row>
+    <row r="757" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C757" s="5"/>
+      <c r="D757" s="5"/>
+      <c r="E757" s="5"/>
+      <c r="F757" s="5"/>
+    </row>
+    <row r="758" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C758" s="5"/>
+      <c r="D758" s="5"/>
+      <c r="E758" s="5"/>
+      <c r="F758" s="5"/>
+    </row>
+    <row r="759" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C759" s="5"/>
+      <c r="D759" s="5"/>
+      <c r="E759" s="5"/>
+      <c r="F759" s="5"/>
+    </row>
+    <row r="760" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C760" s="5"/>
+      <c r="D760" s="5"/>
+      <c r="E760" s="5"/>
+      <c r="F760" s="5"/>
+    </row>
+    <row r="761" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C761" s="5"/>
+      <c r="D761" s="5"/>
+      <c r="E761" s="5"/>
+      <c r="F761" s="5"/>
+    </row>
+    <row r="762" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C762" s="5"/>
+      <c r="D762" s="5"/>
+      <c r="E762" s="5"/>
+      <c r="F762" s="5"/>
+    </row>
+    <row r="763" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C763" s="5"/>
+      <c r="D763" s="5"/>
+      <c r="E763" s="5"/>
+      <c r="F763" s="5"/>
+    </row>
+    <row r="764" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C764" s="5"/>
+      <c r="D764" s="5"/>
+      <c r="E764" s="5"/>
+      <c r="F764" s="5"/>
+    </row>
+    <row r="765" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C765" s="5"/>
+      <c r="D765" s="5"/>
+      <c r="E765" s="5"/>
+      <c r="F765" s="5"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J161" xr:uid="{7E944053-0483-4A03-8F74-295F11CC5AEB}"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M9 B1 B162:B1048576" xr:uid="{C37A5A2F-C54A-424E-97EE-D04C84DAFA15}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7462BE3-62D7-4166-8A9D-E26DCE7423CE}">
+          <x14:formula1>
+            <xm:f>Lists!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B161</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1ECCA55-014D-41B4-A3F2-0F4A16682ED7}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="A9" sqref="A2:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A9" xr:uid="{D0599E20-02DD-4708-8D5D-691A6D3A133E}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30723AB-3E85-4017-BE80-4F35F085BB64}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -741,17 +10096,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565192FC-457A-45E0-B26D-E6CA912763DD}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="A26:C28"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">

--- a/Order.xlsx
+++ b/Order.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anders S. Johansen\Documents\MED10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613FCFC2-A5D2-41C3-9078-9D6087DF2D37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8863B1B6-433B-414E-89DE-BE15F3D22086}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-3420" yWindow="-168" windowWidth="19056" windowHeight="9276" activeTab="3" xr2:uid="{36F197DF-833F-4971-8683-502A5D50ECB2}"/>
-    <workbookView xWindow="9288" yWindow="2688" windowWidth="13728" windowHeight="9276" xr2:uid="{844C89D6-4A11-4977-9BF4-0AC8AFA185A7}"/>
+    <workbookView xWindow="11340" yWindow="1632" windowWidth="13728" windowHeight="9276" xr2:uid="{844C89D6-4A11-4977-9BF4-0AC8AFA185A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Avoidance" sheetId="3" r:id="rId1"/>
@@ -23,7 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Avoidance!$A$1:$J$161</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -173,9 +171,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Ducked</t>
-  </si>
-  <si>
     <t>Water Give Fast</t>
   </si>
   <si>
@@ -234,6 +229,9 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Avoid</t>
   </si>
 </sst>
 </file>
@@ -722,24 +720,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3831CB45-654A-4231-80DA-62404FB3A068}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M765"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="B139" workbookViewId="1">
-      <selection activeCell="D162" sqref="D162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="2" bestFit="1" customWidth="1"/>
@@ -747,80 +743,80 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -847,15 +843,15 @@
         <v>0</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -882,15 +878,15 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -917,15 +913,15 @@
         <v>0</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -952,15 +948,15 @@
         <v>0</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -987,15 +983,15 @@
         <v>0</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -1022,15 +1018,15 @@
         <v>0</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -1057,15 +1053,15 @@
         <v>0</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
@@ -1092,12 +1088,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
@@ -1124,12 +1120,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
@@ -1156,12 +1152,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
@@ -1188,44 +1184,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
@@ -1252,12 +1248,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
@@ -1284,12 +1280,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
@@ -1316,12 +1312,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>1</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
@@ -1348,12 +1344,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2">
         <v>5</v>
@@ -1380,12 +1376,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2">
         <v>5</v>
@@ -1412,12 +1408,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2">
         <v>5</v>
@@ -1444,12 +1440,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>1</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2">
         <v>6</v>
@@ -1476,12 +1472,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
@@ -1508,12 +1504,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2">
         <v>6</v>
@@ -1540,12 +1536,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2">
         <v>6</v>
@@ -1572,12 +1568,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>1</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2">
         <v>7</v>
@@ -1604,12 +1600,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>2</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2">
         <v>7</v>
@@ -1636,12 +1632,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2">
         <v>7</v>
@@ -1668,12 +1664,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>4</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2">
         <v>7</v>
@@ -1700,12 +1696,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>1</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="2">
         <v>8</v>
@@ -1732,12 +1728,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>2</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2">
         <v>8</v>
@@ -1764,12 +1760,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2">
         <v>8</v>
@@ -1796,12 +1792,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>4</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2">
         <v>8</v>
@@ -1828,12 +1824,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>1</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2">
         <v>9</v>
@@ -1860,12 +1856,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>2</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2">
         <v>9</v>
@@ -1892,12 +1888,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2">
         <v>9</v>
@@ -1912,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="10">
         <v>0</v>
@@ -1924,12 +1920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2">
         <v>9</v>
@@ -1956,12 +1952,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>1</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2">
         <v>10</v>
@@ -1988,12 +1984,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>2</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="2">
         <v>10</v>
@@ -2020,12 +2016,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>3</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2">
         <v>10</v>
@@ -2052,12 +2048,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>4</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2">
         <v>10</v>
@@ -2084,12 +2080,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>1</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2">
         <v>11</v>
@@ -2116,12 +2112,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>2</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2">
         <v>11</v>
@@ -2148,12 +2144,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>3</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2">
         <v>11</v>
@@ -2180,12 +2176,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>4</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2">
         <v>11</v>
@@ -2212,12 +2208,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>1</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2">
         <v>12</v>
@@ -2244,12 +2240,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>2</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2">
         <v>12</v>
@@ -2277,12 +2273,12 @@
       </c>
       <c r="K47" s="18"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>3</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2">
         <v>12</v>
@@ -2309,12 +2305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>4</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2">
         <v>12</v>
@@ -2341,12 +2337,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>1</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="2">
         <v>13</v>
@@ -2373,12 +2369,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>2</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2">
         <v>13</v>
@@ -2405,12 +2401,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>3</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="2">
         <v>13</v>
@@ -2437,12 +2433,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>4</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="2">
         <v>13</v>
@@ -2471,12 +2467,12 @@
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>1</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C54" s="2">
         <v>14</v>
@@ -2503,12 +2499,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>2</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" s="2">
         <v>14</v>
@@ -2535,12 +2531,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>3</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C56" s="2">
         <v>14</v>
@@ -2567,12 +2563,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>4</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="2">
         <v>14</v>
@@ -2600,12 +2596,12 @@
       </c>
       <c r="K57" s="18"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>1</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2">
         <v>15</v>
@@ -2632,12 +2628,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>2</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C59" s="2">
         <v>15</v>
@@ -2664,12 +2660,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>3</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C60" s="2">
         <v>15</v>
@@ -2696,12 +2692,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>4</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C61" s="2">
         <v>15</v>
@@ -2728,12 +2724,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>1</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" s="2">
         <v>16</v>
@@ -2760,12 +2756,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>2</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63" s="2">
         <v>16</v>
@@ -2792,12 +2788,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <v>3</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C64" s="2">
         <v>16</v>
@@ -2824,12 +2820,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
         <v>4</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65" s="2">
         <v>16</v>
@@ -2856,12 +2852,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
         <v>1</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2">
         <v>17</v>
@@ -2888,12 +2884,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <v>2</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="2">
         <v>17</v>
@@ -2921,12 +2917,12 @@
       </c>
       <c r="K67" s="18"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>3</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2">
         <v>17</v>
@@ -2954,12 +2950,12 @@
       </c>
       <c r="K68" s="18"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <v>4</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2">
         <v>17</v>
@@ -2986,12 +2982,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
         <v>1</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C70" s="2">
         <v>18</v>
@@ -3018,12 +3014,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
         <v>2</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2">
         <v>18</v>
@@ -3050,12 +3046,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
         <v>3</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C72" s="2">
         <v>18</v>
@@ -3082,12 +3078,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <v>4</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C73" s="2">
         <v>18</v>
@@ -3114,12 +3110,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <v>1</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C74" s="2">
         <v>19</v>
@@ -3146,12 +3142,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
         <v>2</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C75" s="2">
         <v>19</v>
@@ -3178,12 +3174,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12">
         <v>3</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2">
         <v>19</v>
@@ -3211,12 +3207,12 @@
       </c>
       <c r="K76" s="18"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12">
         <v>4</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2">
         <v>19</v>
@@ -3243,12 +3239,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12">
         <v>1</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2">
         <v>20</v>
@@ -3275,12 +3271,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
         <v>2</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C79" s="2">
         <v>20</v>
@@ -3307,12 +3303,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
         <v>3</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C80" s="2">
         <v>20</v>
@@ -3339,12 +3335,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12">
         <v>4</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C81" s="2">
         <v>20</v>
@@ -3372,12 +3368,12 @@
       </c>
       <c r="K81" s="18"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
         <v>1</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2">
         <v>21</v>
@@ -3404,12 +3400,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
         <v>2</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2">
         <v>21</v>
@@ -3441,7 +3437,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2">
         <v>21</v>
@@ -3468,12 +3464,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
         <v>4</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2">
         <v>21</v>
@@ -3500,12 +3496,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
         <v>1</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2">
         <v>22</v>
@@ -3537,7 +3533,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C87" s="2">
         <v>22</v>
@@ -3564,12 +3560,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
         <v>3</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C88" s="2">
         <v>22</v>
@@ -3596,12 +3592,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <v>4</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C89" s="2">
         <v>22</v>
@@ -3633,7 +3629,7 @@
         <v>1</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C90" s="2">
         <v>23</v>
@@ -3660,12 +3656,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
         <v>2</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C91" s="2">
         <v>23</v>
@@ -3692,12 +3688,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>3</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C92" s="2">
         <v>23</v>
@@ -3724,12 +3720,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
         <v>4</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C93" s="2">
         <v>23</v>
@@ -3756,12 +3752,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <v>1</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C94" s="2">
         <v>24</v>
@@ -3788,12 +3784,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <v>2</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C95" s="2">
         <v>24</v>
@@ -3820,12 +3816,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
         <v>3</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2">
         <v>24</v>
@@ -3857,7 +3853,7 @@
         <v>4</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C97" s="2">
         <v>24</v>
@@ -3884,12 +3880,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
         <v>1</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C98" s="2">
         <v>25</v>
@@ -3916,12 +3912,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
         <v>2</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C99" s="2">
         <v>25</v>
@@ -3953,7 +3949,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C100" s="2">
         <v>25</v>
@@ -3980,12 +3976,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <v>4</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C101" s="2">
         <v>25</v>
@@ -4012,12 +4008,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
         <v>1</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C102" s="2">
         <v>26</v>
@@ -4050,7 +4046,7 @@
         <v>2</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C103" s="2">
         <v>26</v>
@@ -4077,12 +4073,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
         <v>3</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C104" s="2">
         <v>26</v>
@@ -4109,12 +4105,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
         <v>4</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C105" s="2">
         <v>26</v>
@@ -4146,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C106" s="2">
         <v>27</v>
@@ -4173,12 +4169,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="12">
         <v>2</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2">
         <v>27</v>
@@ -4205,12 +4201,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12">
         <v>3</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2">
         <v>27</v>
@@ -4237,12 +4233,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
         <v>4</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C109" s="2">
         <v>27</v>
@@ -4269,12 +4265,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
         <v>1</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C110" s="2">
         <v>28</v>
@@ -4302,12 +4298,12 @@
       </c>
       <c r="K110" s="18"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
         <v>2</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C111" s="2">
         <v>28</v>
@@ -4334,12 +4330,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12">
         <v>3</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2">
         <v>28</v>
@@ -4371,7 +4367,7 @@
         <v>4</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C113" s="2">
         <v>28</v>
@@ -4398,12 +4394,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
         <v>1</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C114" s="2">
         <v>29</v>
@@ -4430,12 +4426,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="12">
         <v>2</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C115" s="2">
         <v>29</v>
@@ -4468,7 +4464,7 @@
         <v>3</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C116" s="2">
         <v>29</v>
@@ -4495,45 +4491,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
         <v>4</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C117" s="2">
         <v>29</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <v>1</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C118" s="2">
         <v>30</v>
@@ -4566,7 +4562,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C119" s="2">
         <v>30</v>
@@ -4581,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" s="10">
         <v>0</v>
@@ -4593,12 +4589,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
         <v>3</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C120" s="2">
         <v>30</v>
@@ -4625,12 +4621,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="12">
         <v>4</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C121" s="2">
         <v>30</v>
@@ -4664,594 +4660,1317 @@
         <v>1</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C122" s="2">
         <v>31</v>
       </c>
-      <c r="H122" s="10"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="6"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D122" s="2">
+        <v>1</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="10">
+        <v>0</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0</v>
+      </c>
+      <c r="H122" s="10">
+        <v>0</v>
+      </c>
+      <c r="I122" s="2">
+        <v>0</v>
+      </c>
+      <c r="J122" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>2</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C123" s="2">
         <v>31</v>
       </c>
-      <c r="H123" s="10"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="6"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0</v>
+      </c>
+      <c r="F123" s="10">
+        <v>0</v>
+      </c>
+      <c r="G123" s="2">
+        <v>0</v>
+      </c>
+      <c r="H123" s="10">
+        <v>0</v>
+      </c>
+      <c r="I123" s="2">
+        <v>0</v>
+      </c>
+      <c r="J123" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <v>3</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C124" s="2">
         <v>31</v>
       </c>
-      <c r="H124" s="10"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="6"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D124" s="2">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0</v>
+      </c>
+      <c r="F124" s="10">
+        <v>0</v>
+      </c>
+      <c r="G124" s="2">
+        <v>0</v>
+      </c>
+      <c r="H124" s="10">
+        <v>0</v>
+      </c>
+      <c r="I124" s="2">
+        <v>0</v>
+      </c>
+      <c r="J124" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
         <v>4</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C125" s="2">
         <v>31</v>
       </c>
-      <c r="H125" s="10"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="6"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D125" s="2">
+        <v>1</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+      <c r="F125" s="10">
+        <v>0</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0</v>
+      </c>
+      <c r="H125" s="10">
+        <v>0</v>
+      </c>
+      <c r="I125" s="2">
+        <v>0</v>
+      </c>
+      <c r="J125" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
         <v>1</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C126" s="2">
         <v>32</v>
       </c>
-      <c r="H126" s="10"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="6"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D126" s="2">
+        <v>1</v>
+      </c>
+      <c r="E126" s="2">
+        <v>0</v>
+      </c>
+      <c r="F126" s="10">
+        <v>0</v>
+      </c>
+      <c r="G126" s="2">
+        <v>0</v>
+      </c>
+      <c r="H126" s="10">
+        <v>0</v>
+      </c>
+      <c r="I126" s="2">
+        <v>1</v>
+      </c>
+      <c r="J126" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
         <v>2</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C127" s="2">
         <v>32</v>
       </c>
-      <c r="H127" s="10"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="6"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D127" s="2">
+        <v>0</v>
+      </c>
+      <c r="E127" s="2">
+        <v>0</v>
+      </c>
+      <c r="F127" s="10">
+        <v>0</v>
+      </c>
+      <c r="G127" s="2">
+        <v>0</v>
+      </c>
+      <c r="H127" s="10">
+        <v>0</v>
+      </c>
+      <c r="I127" s="2">
+        <v>1</v>
+      </c>
+      <c r="J127" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
         <v>3</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C128" s="2">
         <v>32</v>
       </c>
-      <c r="H128" s="10"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="6"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
+      <c r="E128" s="2">
+        <v>1</v>
+      </c>
+      <c r="F128" s="10">
+        <v>0</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0</v>
+      </c>
+      <c r="H128" s="10">
+        <v>0</v>
+      </c>
+      <c r="I128" s="2">
+        <v>0</v>
+      </c>
+      <c r="J128" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
         <v>4</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C129" s="2">
         <v>32</v>
       </c>
-      <c r="H129" s="10"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="6"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D129" s="2">
+        <v>1</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1</v>
+      </c>
+      <c r="F129" s="10">
+        <v>0</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0</v>
+      </c>
+      <c r="H129" s="10">
+        <v>0</v>
+      </c>
+      <c r="I129" s="2">
+        <v>0</v>
+      </c>
+      <c r="J129" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
         <v>1</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C130" s="2">
         <v>33</v>
       </c>
-      <c r="H130" s="10"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="6"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D130" s="2">
+        <v>0</v>
+      </c>
+      <c r="E130" s="2">
+        <v>0</v>
+      </c>
+      <c r="F130" s="10">
+        <v>0</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0</v>
+      </c>
+      <c r="H130" s="10">
+        <v>0</v>
+      </c>
+      <c r="I130" s="2">
+        <v>0</v>
+      </c>
+      <c r="J130" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12">
         <v>2</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C131" s="2">
         <v>33</v>
       </c>
-      <c r="H131" s="10"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="6"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D131" s="2">
+        <v>1</v>
+      </c>
+      <c r="E131" s="2">
+        <v>0</v>
+      </c>
+      <c r="F131" s="10">
+        <v>0</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0</v>
+      </c>
+      <c r="H131" s="10">
+        <v>0</v>
+      </c>
+      <c r="I131" s="2">
+        <v>0</v>
+      </c>
+      <c r="J131" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="12">
         <v>3</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C132" s="2">
         <v>33</v>
       </c>
-      <c r="H132" s="10"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="6"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D132" s="2">
+        <v>1</v>
+      </c>
+      <c r="E132" s="2">
+        <v>0</v>
+      </c>
+      <c r="F132" s="10">
+        <v>0</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0</v>
+      </c>
+      <c r="H132" s="10">
+        <v>0</v>
+      </c>
+      <c r="I132" s="2">
+        <v>0</v>
+      </c>
+      <c r="J132" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="12">
         <v>4</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C133" s="2">
         <v>33</v>
       </c>
-      <c r="H133" s="10"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="6"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D133" s="2">
+        <v>0</v>
+      </c>
+      <c r="E133" s="2">
+        <v>0</v>
+      </c>
+      <c r="F133" s="10">
+        <v>0</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0</v>
+      </c>
+      <c r="H133" s="10">
+        <v>0</v>
+      </c>
+      <c r="I133" s="2">
+        <v>0</v>
+      </c>
+      <c r="J133" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="12">
         <v>1</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C134" s="2">
         <v>34</v>
       </c>
-      <c r="H134" s="10"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="6"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D134" s="2">
+        <v>1</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0</v>
+      </c>
+      <c r="F134" s="10">
+        <v>0</v>
+      </c>
+      <c r="G134" s="2">
+        <v>1</v>
+      </c>
+      <c r="H134" s="10">
+        <v>0</v>
+      </c>
+      <c r="I134" s="2">
+        <v>0</v>
+      </c>
+      <c r="J134" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="12">
         <v>2</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C135" s="2">
         <v>34</v>
       </c>
-      <c r="H135" s="10"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="6"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D135" s="2">
+        <v>1</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0</v>
+      </c>
+      <c r="F135" s="10">
+        <v>0</v>
+      </c>
+      <c r="G135" s="2">
+        <v>1</v>
+      </c>
+      <c r="H135" s="10">
+        <v>0</v>
+      </c>
+      <c r="I135" s="2">
+        <v>0</v>
+      </c>
+      <c r="J135" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="12">
         <v>3</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C136" s="2">
         <v>34</v>
       </c>
-      <c r="H136" s="10"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="6"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D136" s="2">
+        <v>0</v>
+      </c>
+      <c r="E136" s="2">
+        <v>0</v>
+      </c>
+      <c r="F136" s="10">
+        <v>0</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0</v>
+      </c>
+      <c r="H136" s="10">
+        <v>0</v>
+      </c>
+      <c r="I136" s="2">
+        <v>0</v>
+      </c>
+      <c r="J136" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="12">
         <v>4</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C137" s="2">
         <v>34</v>
       </c>
-      <c r="H137" s="10"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="6"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D137" s="2">
+        <v>1</v>
+      </c>
+      <c r="E137" s="2">
+        <v>0</v>
+      </c>
+      <c r="F137" s="10">
+        <v>0</v>
+      </c>
+      <c r="G137" s="2">
+        <v>0</v>
+      </c>
+      <c r="H137" s="10">
+        <v>0</v>
+      </c>
+      <c r="I137" s="2">
+        <v>0</v>
+      </c>
+      <c r="J137" s="6">
+        <v>0</v>
+      </c>
+      <c r="K137" s="18"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="12">
         <v>1</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C138" s="2">
         <v>35</v>
       </c>
-      <c r="H138" s="10"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="6"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D138" s="2">
+        <v>1</v>
+      </c>
+      <c r="E138" s="2">
+        <v>0</v>
+      </c>
+      <c r="F138" s="10">
+        <v>0</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0</v>
+      </c>
+      <c r="H138" s="10">
+        <v>0</v>
+      </c>
+      <c r="I138" s="2">
+        <v>0</v>
+      </c>
+      <c r="J138" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="12">
         <v>2</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C139" s="2">
         <v>35</v>
       </c>
-      <c r="H139" s="10"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="6"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D139" s="2">
+        <v>0</v>
+      </c>
+      <c r="E139" s="2">
+        <v>0</v>
+      </c>
+      <c r="F139" s="10">
+        <v>0</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0</v>
+      </c>
+      <c r="H139" s="10">
+        <v>0</v>
+      </c>
+      <c r="I139" s="2">
+        <v>0</v>
+      </c>
+      <c r="J139" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="12">
         <v>3</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C140" s="2">
         <v>35</v>
       </c>
-      <c r="H140" s="10"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="6"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D140" s="2">
+        <v>0</v>
+      </c>
+      <c r="E140" s="2">
+        <v>0</v>
+      </c>
+      <c r="F140" s="10">
+        <v>0</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0</v>
+      </c>
+      <c r="H140" s="10">
+        <v>0</v>
+      </c>
+      <c r="I140" s="2">
+        <v>0</v>
+      </c>
+      <c r="J140" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12">
         <v>4</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C141" s="2">
         <v>35</v>
       </c>
-      <c r="H141" s="10"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="6"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D141" s="2">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1</v>
+      </c>
+      <c r="F141" s="10">
+        <v>0</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0</v>
+      </c>
+      <c r="H141" s="10">
+        <v>0</v>
+      </c>
+      <c r="I141" s="2">
+        <v>0</v>
+      </c>
+      <c r="J141" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12">
         <v>1</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C142" s="2">
         <v>36</v>
       </c>
-      <c r="H142" s="10"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="6"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D142" s="2">
+        <v>1</v>
+      </c>
+      <c r="E142" s="2">
+        <v>0</v>
+      </c>
+      <c r="F142" s="10">
+        <v>0</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0</v>
+      </c>
+      <c r="H142" s="10">
+        <v>0</v>
+      </c>
+      <c r="I142" s="2">
+        <v>0</v>
+      </c>
+      <c r="J142" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="12">
         <v>2</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C143" s="2">
         <v>36</v>
       </c>
-      <c r="H143" s="10"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="6"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D143" s="2">
+        <v>1</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1</v>
+      </c>
+      <c r="F143" s="10">
+        <v>0</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+      <c r="H143" s="10">
+        <v>0</v>
+      </c>
+      <c r="I143" s="2">
+        <v>0</v>
+      </c>
+      <c r="J143" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="12">
         <v>3</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C144" s="2">
         <v>36</v>
       </c>
-      <c r="H144" s="10"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="6"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D144" s="2">
+        <v>1</v>
+      </c>
+      <c r="E144" s="2">
+        <v>0</v>
+      </c>
+      <c r="F144" s="10">
+        <v>0</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0</v>
+      </c>
+      <c r="H144" s="10">
+        <v>0</v>
+      </c>
+      <c r="I144" s="2">
+        <v>0</v>
+      </c>
+      <c r="J144" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="12">
         <v>4</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C145" s="2">
         <v>36</v>
       </c>
-      <c r="H145" s="10"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="6"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D145" s="2">
+        <v>0</v>
+      </c>
+      <c r="E145" s="2">
+        <v>0</v>
+      </c>
+      <c r="F145" s="10">
+        <v>0</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0</v>
+      </c>
+      <c r="H145" s="10">
+        <v>0</v>
+      </c>
+      <c r="I145" s="2">
+        <v>0</v>
+      </c>
+      <c r="J145" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="12">
         <v>1</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C146" s="2">
         <v>37</v>
       </c>
-      <c r="H146" s="10"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="6"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
+      <c r="E146" s="2">
+        <v>0</v>
+      </c>
+      <c r="F146" s="10">
+        <v>0</v>
+      </c>
+      <c r="G146" s="2">
+        <v>0</v>
+      </c>
+      <c r="H146" s="10">
+        <v>0</v>
+      </c>
+      <c r="I146" s="2">
+        <v>0</v>
+      </c>
+      <c r="J146" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <v>2</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C147" s="2">
         <v>37</v>
       </c>
-      <c r="H147" s="10"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="6"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D147" s="2">
+        <v>0</v>
+      </c>
+      <c r="E147" s="2">
+        <v>0</v>
+      </c>
+      <c r="F147" s="10">
+        <v>0</v>
+      </c>
+      <c r="G147" s="2">
+        <v>0</v>
+      </c>
+      <c r="H147" s="10">
+        <v>0</v>
+      </c>
+      <c r="I147" s="2">
+        <v>0</v>
+      </c>
+      <c r="J147" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="12">
         <v>3</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C148" s="2">
         <v>37</v>
       </c>
-      <c r="H148" s="10"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="6"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D148" s="2">
+        <v>1</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1</v>
+      </c>
+      <c r="F148" s="10">
+        <v>1</v>
+      </c>
+      <c r="G148" s="2">
+        <v>1</v>
+      </c>
+      <c r="H148" s="10">
+        <v>0</v>
+      </c>
+      <c r="I148" s="2">
+        <v>0</v>
+      </c>
+      <c r="J148" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="12">
         <v>4</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C149" s="2">
         <v>37</v>
       </c>
-      <c r="H149" s="10"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="6"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D149" s="2">
+        <v>1</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1</v>
+      </c>
+      <c r="F149" s="10">
+        <v>1</v>
+      </c>
+      <c r="G149" s="2">
+        <v>1</v>
+      </c>
+      <c r="H149" s="10">
+        <v>0</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0</v>
+      </c>
+      <c r="J149" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="12">
         <v>1</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C150" s="2">
         <v>38</v>
       </c>
-      <c r="H150" s="10"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="6"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D150" s="2">
+        <v>0</v>
+      </c>
+      <c r="E150" s="2">
+        <v>0</v>
+      </c>
+      <c r="F150" s="10">
+        <v>0</v>
+      </c>
+      <c r="G150" s="2">
+        <v>0</v>
+      </c>
+      <c r="H150" s="10">
+        <v>0</v>
+      </c>
+      <c r="I150" s="2">
+        <v>0</v>
+      </c>
+      <c r="J150" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="12">
         <v>2</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C151" s="2">
         <v>38</v>
       </c>
-      <c r="H151" s="10"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="6"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D151" s="2">
+        <v>0</v>
+      </c>
+      <c r="E151" s="2">
+        <v>0</v>
+      </c>
+      <c r="F151" s="10">
+        <v>0</v>
+      </c>
+      <c r="G151" s="2">
+        <v>0</v>
+      </c>
+      <c r="H151" s="10">
+        <v>0</v>
+      </c>
+      <c r="I151" s="2">
+        <v>0</v>
+      </c>
+      <c r="J151" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="12">
         <v>3</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C152" s="2">
         <v>38</v>
       </c>
-      <c r="H152" s="10"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="6"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D152" s="2">
+        <v>1</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1</v>
+      </c>
+      <c r="F152" s="10">
+        <v>0</v>
+      </c>
+      <c r="G152" s="2">
+        <v>0</v>
+      </c>
+      <c r="H152" s="10">
+        <v>0</v>
+      </c>
+      <c r="I152" s="2">
+        <v>0</v>
+      </c>
+      <c r="J152" s="6">
+        <v>0</v>
+      </c>
+      <c r="K152" s="18"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="12">
         <v>4</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C153" s="2">
         <v>38</v>
       </c>
-      <c r="H153" s="10"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="6"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D153" s="2">
+        <v>1</v>
+      </c>
+      <c r="E153" s="2">
+        <v>1</v>
+      </c>
+      <c r="F153" s="10">
+        <v>0</v>
+      </c>
+      <c r="G153" s="2">
+        <v>0</v>
+      </c>
+      <c r="H153" s="10">
+        <v>0</v>
+      </c>
+      <c r="I153" s="2">
+        <v>0</v>
+      </c>
+      <c r="J153" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="12">
         <v>1</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C154" s="2">
         <v>39</v>
       </c>
-      <c r="H154" s="10"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="6"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D154" s="2">
+        <v>1</v>
+      </c>
+      <c r="E154" s="2">
+        <v>0</v>
+      </c>
+      <c r="F154" s="10">
+        <v>0</v>
+      </c>
+      <c r="G154" s="2">
+        <v>1</v>
+      </c>
+      <c r="H154" s="10">
+        <v>0</v>
+      </c>
+      <c r="I154" s="2">
+        <v>0</v>
+      </c>
+      <c r="J154" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="12">
         <v>2</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C155" s="2">
         <v>39</v>
       </c>
-      <c r="H155" s="10"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="6"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D155" s="2">
+        <v>0</v>
+      </c>
+      <c r="E155" s="2">
+        <v>0</v>
+      </c>
+      <c r="F155" s="10">
+        <v>0</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0</v>
+      </c>
+      <c r="H155" s="10">
+        <v>0</v>
+      </c>
+      <c r="I155" s="2">
+        <v>0</v>
+      </c>
+      <c r="J155" s="6">
+        <v>0</v>
+      </c>
+      <c r="K155" s="18"/>
+    </row>
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="12">
         <v>3</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C156" s="2">
         <v>39</v>
       </c>
-      <c r="H156" s="10"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="6"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D156" s="2">
+        <v>0</v>
+      </c>
+      <c r="E156" s="2">
+        <v>0</v>
+      </c>
+      <c r="F156" s="10">
+        <v>0</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0</v>
+      </c>
+      <c r="H156" s="10">
+        <v>0</v>
+      </c>
+      <c r="I156" s="2">
+        <v>0</v>
+      </c>
+      <c r="J156" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="12">
         <v>4</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C157" s="2">
         <v>39</v>
       </c>
-      <c r="H157" s="10"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="6"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D157" s="2">
+        <v>1</v>
+      </c>
+      <c r="E157" s="2">
+        <v>0</v>
+      </c>
+      <c r="F157" s="10">
+        <v>0</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0</v>
+      </c>
+      <c r="H157" s="10">
+        <v>0</v>
+      </c>
+      <c r="I157" s="2">
+        <v>0</v>
+      </c>
+      <c r="J157" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="12">
         <v>1</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C158" s="2">
         <v>40</v>
       </c>
-      <c r="H158" s="10"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="6"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D158" s="2">
+        <v>0</v>
+      </c>
+      <c r="E158" s="2">
+        <v>0</v>
+      </c>
+      <c r="F158" s="10">
+        <v>0</v>
+      </c>
+      <c r="G158" s="2">
+        <v>0</v>
+      </c>
+      <c r="H158" s="10">
+        <v>0</v>
+      </c>
+      <c r="I158" s="2">
+        <v>0</v>
+      </c>
+      <c r="J158" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="12">
         <v>2</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C159" s="2">
         <v>40</v>
       </c>
-      <c r="H159" s="10"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="6"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D159" s="2">
+        <v>1</v>
+      </c>
+      <c r="E159" s="2">
+        <v>0</v>
+      </c>
+      <c r="F159" s="10">
+        <v>0</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0</v>
+      </c>
+      <c r="H159" s="10">
+        <v>0</v>
+      </c>
+      <c r="I159" s="2">
+        <v>0</v>
+      </c>
+      <c r="J159" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="12">
         <v>3</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C160" s="2">
         <v>40</v>
       </c>
-      <c r="H160" s="10"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="6"/>
-    </row>
-    <row r="161" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D160" s="2">
+        <v>1</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1</v>
+      </c>
+      <c r="F160" s="10">
+        <v>0</v>
+      </c>
+      <c r="G160" s="2">
+        <v>0</v>
+      </c>
+      <c r="H160" s="10">
+        <v>0</v>
+      </c>
+      <c r="I160" s="2">
+        <v>0</v>
+      </c>
+      <c r="J160" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="12">
         <v>4</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C161" s="2">
         <v>40</v>
       </c>
-      <c r="H161" s="10"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="6"/>
+      <c r="D161" s="2">
+        <v>0</v>
+      </c>
+      <c r="E161" s="2">
+        <v>0</v>
+      </c>
+      <c r="F161" s="10">
+        <v>0</v>
+      </c>
+      <c r="G161" s="2">
+        <v>0</v>
+      </c>
+      <c r="H161" s="10">
+        <v>0</v>
+      </c>
+      <c r="I161" s="2">
+        <v>0</v>
+      </c>
+      <c r="J161" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="162" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="16"/>
       <c r="B162" s="7"/>
-      <c r="C162" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D162" s="1">
-        <f>SUBTOTAL(9,D3:D161)</f>
-        <v>39</v>
+      <c r="C162" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D162" s="4">
+        <f t="shared" ref="D162:J162" si="0">SUBTOTAL(9,D3:D161)</f>
+        <v>17</v>
       </c>
       <c r="E162" s="4">
-        <f>SUBTOTAL(9,E3:E161)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="F162" s="9">
-        <f>SUBTOTAL(9,F3:F161)</f>
-        <v>0</v>
-      </c>
-      <c r="G162" s="4">
-        <f>SUBTOTAL(9,G3:G161)</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G162" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H162" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I162" s="4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H162" s="9">
-        <f>SUBTOTAL(9,H3:H161)</f>
+      <c r="J162" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
-      </c>
-      <c r="I162" s="4">
-        <f>SUBTOTAL(9,I3:I161)</f>
-        <v>13</v>
-      </c>
-      <c r="J162" s="8">
-        <f>SUBTOTAL(9,J3:J161)</f>
-        <v>21</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -9808,7 +10527,13 @@
       <c r="F765" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J161" xr:uid="{7E944053-0483-4A03-8F74-295F11CC5AEB}"/>
+  <autoFilter ref="A1:J161" xr:uid="{7E944053-0483-4A03-8F74-295F11CC5AEB}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Lego Back Slow"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M9 B1 B162:B1048576" xr:uid="{C37A5A2F-C54A-424E-97EE-D04C84DAFA15}">
       <formula1>#REF!</formula1>
@@ -9835,8 +10560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1ECCA55-014D-41B4-A3F2-0F4A16682ED7}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
@@ -9847,47 +10571,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
@@ -9908,10 +10632,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10101,10 +10822,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Order.xlsx
+++ b/Order.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anders S. Johansen\Documents\MED10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesper W Henriksen\Documents\Med10\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8863B1B6-433B-414E-89DE-BE15F3D22086}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B322AA4-B661-476E-BC92-DBF2C2A463E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="1632" windowWidth="13728" windowHeight="9276" xr2:uid="{844C89D6-4A11-4977-9BF4-0AC8AFA185A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{844C89D6-4A11-4977-9BF4-0AC8AFA185A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Avoidance" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="75">
   <si>
     <t>Participant 1</t>
   </si>
@@ -233,6 +233,36 @@
   <si>
     <t>Avoid</t>
   </si>
+  <si>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>test 2</t>
+  </si>
+  <si>
+    <t>test 3</t>
+  </si>
+  <si>
+    <t>test 4</t>
+  </si>
+  <si>
+    <t>GSR</t>
+  </si>
+  <si>
+    <t>GSR - not robot</t>
+  </si>
+  <si>
+    <t>physical reaction</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>GSR SENSOR NOT ATTACHED PROPERLY FOR THIS TEST</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
@@ -386,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -406,6 +436,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +457,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -723,13 +756,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M765"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="2" customWidth="1"/>
@@ -5906,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="12">
         <v>4</v>
       </c>
@@ -5938,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="16"/>
       <c r="B162" s="7"/>
       <c r="C162" s="4" t="s">
@@ -5973,7 +6006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="15"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -5984,469 +6017,1662 @@
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A164" s="15"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A165" s="15"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="5"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="5"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="5"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="5"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="5"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="5"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A176" s="5"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
-      <c r="J176" s="5"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A177" s="5"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A178" s="5"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="5"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A179" s="5"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
-      <c r="I179" s="5"/>
-      <c r="J179" s="5"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A180" s="5"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5"/>
-      <c r="J180" s="5"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="5"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A182" s="5"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A183" s="5"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="5"/>
-      <c r="J183" s="5"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A184" s="5"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
-      <c r="I184" s="5"/>
-      <c r="J184" s="5"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A185" s="5"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5"/>
-      <c r="H185" s="5"/>
-      <c r="I185" s="5"/>
-      <c r="J185" s="5"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A186" s="5"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A187" s="5"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
-      <c r="I187" s="5"/>
-      <c r="J187" s="5"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A188" s="5"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-      <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
-      <c r="I188" s="5"/>
-      <c r="J188" s="5"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A189" s="5"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A190" s="5"/>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="5"/>
-      <c r="J190" s="5"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A191" s="5"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
-      <c r="J191" s="5"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A192" s="5"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="5"/>
-      <c r="H192" s="5"/>
-      <c r="I192" s="5"/>
-      <c r="J192" s="5"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="5"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
-      <c r="J193" s="5"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A194" s="5"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
-      <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
-      <c r="I194" s="5"/>
-      <c r="J194" s="5"/>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A195" s="5"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="5"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A196" s="5"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="5"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="5"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="5"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A199" s="5"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="5"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="5"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="5"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A201" s="5"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
-      <c r="F201" s="5"/>
-      <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
-      <c r="I201" s="5"/>
-      <c r="J201" s="5"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A202" s="5"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
-      <c r="I202" s="5"/>
-      <c r="J202" s="5"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A203" s="5"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
-      <c r="J203" s="5"/>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A204" s="5"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
-      <c r="F204" s="5"/>
-      <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
-      <c r="J204" s="5"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A205" s="5"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="5"/>
-      <c r="H205" s="5"/>
-      <c r="I205" s="5"/>
-      <c r="J205" s="5"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B164" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I164" s="19"/>
+      <c r="J164" s="19"/>
+      <c r="K164" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L164" s="19"/>
+      <c r="M164" s="19"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>48</v>
+      </c>
+      <c r="B165" t="s">
+        <v>69</v>
+      </c>
+      <c r="C165" t="s">
+        <v>70</v>
+      </c>
+      <c r="D165" t="s">
+        <v>71</v>
+      </c>
+      <c r="E165" t="s">
+        <v>69</v>
+      </c>
+      <c r="F165" t="s">
+        <v>70</v>
+      </c>
+      <c r="G165" t="s">
+        <v>71</v>
+      </c>
+      <c r="H165" t="s">
+        <v>69</v>
+      </c>
+      <c r="I165" t="s">
+        <v>70</v>
+      </c>
+      <c r="J165" t="s">
+        <v>71</v>
+      </c>
+      <c r="K165" t="s">
+        <v>69</v>
+      </c>
+      <c r="L165" t="s">
+        <v>70</v>
+      </c>
+      <c r="M165" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>72</v>
+      </c>
+      <c r="D166" t="s">
+        <v>72</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>2</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>3</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>4</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>72</v>
+      </c>
+      <c r="D169" t="s">
+        <v>72</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>5</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>6</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>8</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>9</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>10</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>11</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>12</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>13</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>14</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>15</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>16</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>17</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>18</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>19</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>20</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>21</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>22</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>23</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>24</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>25</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>26</v>
+      </c>
+      <c r="B191" t="s">
+        <v>73</v>
+      </c>
+      <c r="C191"/>
+      <c r="D191"/>
+      <c r="E191"/>
+      <c r="F191"/>
+      <c r="G191"/>
+      <c r="H191"/>
+      <c r="J191"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>27</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>28</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>29</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194" t="s">
+        <v>74</v>
+      </c>
+      <c r="L194" t="s">
+        <v>74</v>
+      </c>
+      <c r="M194" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>30</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>31</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>32</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>33</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>34</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
+      <c r="H199"/>
+      <c r="J199"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>35</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>36</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>37</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>38</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>39</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>40</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
@@ -6457,7 +7683,7 @@
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
@@ -6468,7 +7694,7 @@
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
@@ -10534,6 +11760,12 @@
       </filters>
     </filterColumn>
   </autoFilter>
+  <mergeCells count="4">
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="E164:G164"/>
+    <mergeCell ref="H164:J164"/>
+    <mergeCell ref="K164:M164"/>
+  </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M9 B1 B162:B1048576" xr:uid="{C37A5A2F-C54A-424E-97EE-D04C84DAFA15}">
       <formula1>#REF!</formula1>
@@ -10632,7 +11864,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
